--- a/data/pca/factorExposure/factorExposure_2011-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01377197907036548</v>
+        <v>-0.01398082849155004</v>
       </c>
       <c r="C2">
-        <v>-0.005885867786044846</v>
+        <v>-0.000833991082543854</v>
       </c>
       <c r="D2">
-        <v>-0.0561110659150726</v>
+        <v>0.007708789954893337</v>
       </c>
       <c r="E2">
-        <v>0.01733923835819596</v>
+        <v>-0.0424747885666248</v>
       </c>
       <c r="F2">
-        <v>-0.02928218582967545</v>
+        <v>0.003333271425952968</v>
       </c>
       <c r="G2">
-        <v>-0.02712301364565328</v>
+        <v>0.008282341904706227</v>
       </c>
       <c r="H2">
-        <v>-0.02941227893773768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03472700755632893</v>
+      </c>
+      <c r="I2">
+        <v>0.02041479599152264</v>
+      </c>
+      <c r="J2">
+        <v>-0.01849971711579976</v>
+      </c>
+      <c r="K2">
+        <v>0.0479872755138851</v>
+      </c>
+      <c r="L2">
+        <v>-0.01671124305743079</v>
+      </c>
+      <c r="M2">
+        <v>-0.0008381775604444909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08235532625168124</v>
+        <v>-0.1089263578837991</v>
       </c>
       <c r="C4">
-        <v>0.05762190639067916</v>
+        <v>0.07437717270977449</v>
       </c>
       <c r="D4">
-        <v>-0.0326708730205903</v>
+        <v>0.01373148287041965</v>
       </c>
       <c r="E4">
-        <v>0.03645007251807424</v>
+        <v>-0.03714712648535694</v>
       </c>
       <c r="F4">
-        <v>-0.02533678430937739</v>
+        <v>-0.1614436188791961</v>
       </c>
       <c r="G4">
-        <v>-0.01816582382566401</v>
+        <v>-0.01954226334438428</v>
       </c>
       <c r="H4">
-        <v>0.01302908887607283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.03392225012766899</v>
+      </c>
+      <c r="I4">
+        <v>-0.04050943158816277</v>
+      </c>
+      <c r="J4">
+        <v>-0.005248059091510192</v>
+      </c>
+      <c r="K4">
+        <v>-0.09371047593180151</v>
+      </c>
+      <c r="L4">
+        <v>-0.03850824379127624</v>
+      </c>
+      <c r="M4">
+        <v>0.05766080085047972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1283102431012279</v>
+        <v>-0.1332742319185156</v>
       </c>
       <c r="C6">
-        <v>0.03479514551481489</v>
+        <v>0.05306551455856182</v>
       </c>
       <c r="D6">
-        <v>-0.04719841689823328</v>
+        <v>0.0004936847978787241</v>
       </c>
       <c r="E6">
-        <v>0.05163698348051559</v>
+        <v>0.007332226071739376</v>
       </c>
       <c r="F6">
-        <v>0.1538349903956354</v>
+        <v>0.01619730907979361</v>
       </c>
       <c r="G6">
-        <v>0.1224432578357429</v>
+        <v>-0.113903179333697</v>
       </c>
       <c r="H6">
-        <v>0.2387815313768289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.002540510333685379</v>
+      </c>
+      <c r="I6">
+        <v>-0.3597237944698223</v>
+      </c>
+      <c r="J6">
+        <v>0.2812124214039091</v>
+      </c>
+      <c r="K6">
+        <v>-0.03535726265270644</v>
+      </c>
+      <c r="L6">
+        <v>-0.1178173315027944</v>
+      </c>
+      <c r="M6">
+        <v>-0.03844207275824876</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07543074893026561</v>
+        <v>-0.07025362447861021</v>
       </c>
       <c r="C7">
-        <v>0.04895101253389968</v>
+        <v>0.06387639489249199</v>
       </c>
       <c r="D7">
-        <v>-0.04543658199837856</v>
+        <v>0.01173452424309687</v>
       </c>
       <c r="E7">
-        <v>0.0491322135082845</v>
+        <v>-0.04368599979662427</v>
       </c>
       <c r="F7">
-        <v>0.03937092781310235</v>
+        <v>-0.03748041975548589</v>
       </c>
       <c r="G7">
-        <v>-0.002734137989582764</v>
+        <v>-0.002361226468245103</v>
       </c>
       <c r="H7">
-        <v>-0.02484587505746647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.02058179830243138</v>
+      </c>
+      <c r="I7">
+        <v>0.02390523469800522</v>
+      </c>
+      <c r="J7">
+        <v>-0.07694425534430401</v>
+      </c>
+      <c r="K7">
+        <v>-0.08778297114404349</v>
+      </c>
+      <c r="L7">
+        <v>-0.01361934331081498</v>
+      </c>
+      <c r="M7">
+        <v>-0.05799845441264581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.03883582102652983</v>
+        <v>-0.04234933470005429</v>
       </c>
       <c r="C8">
-        <v>0.02405763174303007</v>
+        <v>0.02028298044955063</v>
       </c>
       <c r="D8">
-        <v>-0.05741134905563691</v>
+        <v>0.007514842985758755</v>
       </c>
       <c r="E8">
-        <v>0.04900561893550918</v>
+        <v>-0.0162080689074111</v>
       </c>
       <c r="F8">
-        <v>-0.02052073674585989</v>
+        <v>-0.1359144602263031</v>
       </c>
       <c r="G8">
-        <v>-0.0565315873644636</v>
+        <v>0.01046409173552029</v>
       </c>
       <c r="H8">
-        <v>0.04634318147501421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.02893268033539773</v>
+      </c>
+      <c r="I8">
+        <v>-0.07153609774339231</v>
+      </c>
+      <c r="J8">
+        <v>-0.02459681582953361</v>
+      </c>
+      <c r="K8">
+        <v>-0.06588781579138363</v>
+      </c>
+      <c r="L8">
+        <v>-0.07623892126001479</v>
+      </c>
+      <c r="M8">
+        <v>0.07151540083054235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.08005816193423562</v>
+        <v>-0.08359811259639778</v>
       </c>
       <c r="C9">
-        <v>0.06207084244477881</v>
+        <v>0.06654023930227811</v>
       </c>
       <c r="D9">
-        <v>-0.03699672499972847</v>
+        <v>-0.004282504720370843</v>
       </c>
       <c r="E9">
-        <v>0.03434028287517839</v>
+        <v>-0.02701738973302098</v>
       </c>
       <c r="F9">
-        <v>-0.02367459454580111</v>
+        <v>-0.1432468518723155</v>
       </c>
       <c r="G9">
-        <v>-0.01743718701473563</v>
+        <v>-0.02504699850621701</v>
       </c>
       <c r="H9">
-        <v>0.01159078790911772</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.005917378539182136</v>
+      </c>
+      <c r="I9">
+        <v>-0.01086394917707363</v>
+      </c>
+      <c r="J9">
+        <v>-0.0160637109528805</v>
+      </c>
+      <c r="K9">
+        <v>-0.05082706039817337</v>
+      </c>
+      <c r="L9">
+        <v>-0.03676137473400344</v>
+      </c>
+      <c r="M9">
+        <v>-0.009571548939163808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.05234432527101976</v>
+        <v>-0.1115724156257287</v>
       </c>
       <c r="C10">
-        <v>-0.1438348246583346</v>
+        <v>-0.163961735838566</v>
       </c>
       <c r="D10">
-        <v>-0.07646796653618614</v>
+        <v>0.01175376957458174</v>
       </c>
       <c r="E10">
-        <v>0.04063934892235099</v>
+        <v>-0.03707562596552483</v>
       </c>
       <c r="F10">
-        <v>0.03193707433452208</v>
+        <v>0.01571605652575915</v>
       </c>
       <c r="G10">
-        <v>0.00799627984976716</v>
+        <v>-0.02867073453247953</v>
       </c>
       <c r="H10">
-        <v>0.03184172791474556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.0181755097331931</v>
+      </c>
+      <c r="I10">
+        <v>0.01939333326716172</v>
+      </c>
+      <c r="J10">
+        <v>0.008591385539742456</v>
+      </c>
+      <c r="K10">
+        <v>0.006788109222437669</v>
+      </c>
+      <c r="L10">
+        <v>0.04042306955125943</v>
+      </c>
+      <c r="M10">
+        <v>-0.1056453507554473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07617051560010277</v>
+        <v>-0.06827316766703291</v>
       </c>
       <c r="C11">
-        <v>0.07733359817858691</v>
+        <v>0.07160788222245114</v>
       </c>
       <c r="D11">
-        <v>-0.01691671558150137</v>
+        <v>-0.03037008012545172</v>
       </c>
       <c r="E11">
-        <v>-0.001524015546807186</v>
+        <v>-0.01237533898717732</v>
       </c>
       <c r="F11">
-        <v>-0.03544577785701414</v>
+        <v>-0.1189994391903233</v>
       </c>
       <c r="G11">
-        <v>-0.0936619032728002</v>
+        <v>-0.01094335018843091</v>
       </c>
       <c r="H11">
-        <v>-0.002772520910098915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.04946378502376444</v>
+      </c>
+      <c r="I11">
+        <v>0.06949623087110438</v>
+      </c>
+      <c r="J11">
+        <v>-0.04572497168257398</v>
+      </c>
+      <c r="K11">
+        <v>0.06425969478118689</v>
+      </c>
+      <c r="L11">
+        <v>-0.0299391259304232</v>
+      </c>
+      <c r="M11">
+        <v>-0.122980682057032</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07264534827155861</v>
+        <v>-0.06834708634183785</v>
       </c>
       <c r="C12">
-        <v>0.04976175293556005</v>
+        <v>0.06366459964771093</v>
       </c>
       <c r="D12">
-        <v>-0.003517440424904665</v>
+        <v>-0.02822343563462702</v>
       </c>
       <c r="E12">
-        <v>0.04160063947812122</v>
+        <v>-0.003075653500178115</v>
       </c>
       <c r="F12">
-        <v>-0.01783395077420104</v>
+        <v>-0.1301591606615667</v>
       </c>
       <c r="G12">
-        <v>-0.0765560424573653</v>
+        <v>0.0007054212141795565</v>
       </c>
       <c r="H12">
-        <v>0.005623168945943204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.0460138694235442</v>
+      </c>
+      <c r="I12">
+        <v>0.0357937769615422</v>
+      </c>
+      <c r="J12">
+        <v>-0.05641270155024074</v>
+      </c>
+      <c r="K12">
+        <v>0.05632425899061864</v>
+      </c>
+      <c r="L12">
+        <v>-0.04620225363830793</v>
+      </c>
+      <c r="M12">
+        <v>-0.1365669169821923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05672872524746863</v>
+        <v>-0.0453351913671379</v>
       </c>
       <c r="C13">
-        <v>0.00687597301173404</v>
+        <v>0.03317949155466918</v>
       </c>
       <c r="D13">
-        <v>-0.003155636685799939</v>
+        <v>0.02115568697440402</v>
       </c>
       <c r="E13">
-        <v>0.02018981413133765</v>
+        <v>-0.009357034347476867</v>
       </c>
       <c r="F13">
-        <v>-0.05258291826175297</v>
+        <v>-0.04858473263300137</v>
       </c>
       <c r="G13">
-        <v>0.0007960763101164221</v>
+        <v>0.003070292039477039</v>
       </c>
       <c r="H13">
-        <v>0.006475613452674008</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.01881540640344524</v>
+      </c>
+      <c r="I13">
+        <v>-0.008439460303904519</v>
+      </c>
+      <c r="J13">
+        <v>-0.02288388364226101</v>
+      </c>
+      <c r="K13">
+        <v>-0.0414116524001362</v>
+      </c>
+      <c r="L13">
+        <v>0.0160234632885234</v>
+      </c>
+      <c r="M13">
+        <v>0.02637412551627909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05314450679903678</v>
+        <v>-0.0393872808765955</v>
       </c>
       <c r="C14">
-        <v>0.020243007250734</v>
+        <v>0.02740762358265784</v>
       </c>
       <c r="D14">
-        <v>-0.01830816919930995</v>
+        <v>-0.01463301992924358</v>
       </c>
       <c r="E14">
-        <v>0.02082025383072488</v>
+        <v>-0.0102589978221623</v>
       </c>
       <c r="F14">
-        <v>0.01988489776316296</v>
+        <v>-0.07050293128294272</v>
       </c>
       <c r="G14">
-        <v>0.02017747701203247</v>
+        <v>0.00683020691681886</v>
       </c>
       <c r="H14">
-        <v>0.09509029557360603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.0320110886822941</v>
+      </c>
+      <c r="I14">
+        <v>-0.002234658265295106</v>
+      </c>
+      <c r="J14">
+        <v>0.01747544684022099</v>
+      </c>
+      <c r="K14">
+        <v>-0.1002861344880866</v>
+      </c>
+      <c r="L14">
+        <v>-0.02577529573821201</v>
+      </c>
+      <c r="M14">
+        <v>-0.0008096999600051333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03609472774274763</v>
+        <v>-0.0255784962053501</v>
       </c>
       <c r="C15">
-        <v>-0.009018722122002209</v>
+        <v>0.009557406911390955</v>
       </c>
       <c r="D15">
-        <v>0.001426755678289456</v>
+        <v>0.05464860694890078</v>
       </c>
       <c r="E15">
-        <v>0.02027267452868413</v>
+        <v>-0.003395309622184621</v>
       </c>
       <c r="F15">
-        <v>-0.01167249703552653</v>
+        <v>-0.009038174666054433</v>
       </c>
       <c r="G15">
-        <v>0.01570149072902978</v>
+        <v>-0.035943334016573</v>
       </c>
       <c r="H15">
-        <v>0.03928955660661837</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01964334063714863</v>
+      </c>
+      <c r="I15">
+        <v>-0.006131296849570382</v>
+      </c>
+      <c r="J15">
+        <v>0.01849101557821667</v>
+      </c>
+      <c r="K15">
+        <v>-0.07943812053128163</v>
+      </c>
+      <c r="L15">
+        <v>-0.0007917537220996772</v>
+      </c>
+      <c r="M15">
+        <v>-0.009879667922126651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06766179870128368</v>
+        <v>-0.07160371531597796</v>
       </c>
       <c r="C16">
-        <v>0.07777182498571181</v>
+        <v>0.07817173019586772</v>
       </c>
       <c r="D16">
-        <v>-0.02021437010222862</v>
+        <v>-0.02030663613633025</v>
       </c>
       <c r="E16">
-        <v>0.03090120514280729</v>
+        <v>-0.0117210481184113</v>
       </c>
       <c r="F16">
-        <v>-0.04215551373945317</v>
+        <v>-0.1203299627248705</v>
       </c>
       <c r="G16">
-        <v>-0.06725652923158215</v>
+        <v>0.001373837178476924</v>
       </c>
       <c r="H16">
-        <v>-0.008006240580622029</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.03387330208569236</v>
+      </c>
+      <c r="I16">
+        <v>0.05004300793173928</v>
+      </c>
+      <c r="J16">
+        <v>-0.06365960471165459</v>
+      </c>
+      <c r="K16">
+        <v>0.04600763458778419</v>
+      </c>
+      <c r="L16">
+        <v>-0.04882699146438862</v>
+      </c>
+      <c r="M16">
+        <v>-0.1293744385744021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04561676532526998</v>
+        <v>-0.04685144143860445</v>
       </c>
       <c r="C20">
-        <v>0.04189832882653576</v>
+        <v>0.03187200382749416</v>
       </c>
       <c r="D20">
-        <v>-0.01201827136744575</v>
+        <v>0.02305628519976474</v>
       </c>
       <c r="E20">
-        <v>0.01163838264603217</v>
+        <v>-0.01555143505580798</v>
       </c>
       <c r="F20">
-        <v>-0.01465310161876171</v>
+        <v>-0.07153872413457529</v>
       </c>
       <c r="G20">
-        <v>-0.01950277020858289</v>
+        <v>0.02439040314925808</v>
       </c>
       <c r="H20">
-        <v>-0.002398652178094699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01819331662655818</v>
+      </c>
+      <c r="I20">
+        <v>-0.01241936393786814</v>
+      </c>
+      <c r="J20">
+        <v>-0.01580922225741726</v>
+      </c>
+      <c r="K20">
+        <v>-0.06290330950050189</v>
+      </c>
+      <c r="L20">
+        <v>-0.04375666698057529</v>
+      </c>
+      <c r="M20">
+        <v>-0.02522179986813478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02609678195486173</v>
+        <v>-0.02353495331307615</v>
       </c>
       <c r="C21">
-        <v>0.03131879960032761</v>
+        <v>0.02386869144658595</v>
       </c>
       <c r="D21">
-        <v>0.0007315561257430998</v>
+        <v>0.005981452582906885</v>
       </c>
       <c r="E21">
-        <v>0.05584227372884377</v>
+        <v>-0.01532205407993027</v>
       </c>
       <c r="F21">
-        <v>0.084769014060572</v>
+        <v>-0.06795912088278619</v>
       </c>
       <c r="G21">
-        <v>0.01513516661385333</v>
+        <v>-0.0721429889681492</v>
       </c>
       <c r="H21">
-        <v>0.009059975895756094</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1017407632187117</v>
+      </c>
+      <c r="I21">
+        <v>-0.01121105324972618</v>
+      </c>
+      <c r="J21">
+        <v>-0.02386640420429085</v>
+      </c>
+      <c r="K21">
+        <v>-0.1258721394889577</v>
+      </c>
+      <c r="L21">
+        <v>0.04098968105841512</v>
+      </c>
+      <c r="M21">
+        <v>-0.04962487755255173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.0187334159212525</v>
+        <v>-0.04425667343672577</v>
       </c>
       <c r="C22">
-        <v>0.04213193958492064</v>
+        <v>0.02890077706043789</v>
       </c>
       <c r="D22">
-        <v>0.06221398505982773</v>
+        <v>0.6527769673953663</v>
       </c>
       <c r="E22">
-        <v>0.5244894219379052</v>
+        <v>-0.06485972236919589</v>
       </c>
       <c r="F22">
-        <v>-0.2454242626960011</v>
+        <v>0.05398360171994585</v>
       </c>
       <c r="G22">
-        <v>0.1316215627919578</v>
+        <v>0.1365185053187384</v>
       </c>
       <c r="H22">
-        <v>-0.138786097811026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1083293395370913</v>
+      </c>
+      <c r="I22">
+        <v>0.01733424998923443</v>
+      </c>
+      <c r="J22">
+        <v>0.02278139868602165</v>
+      </c>
+      <c r="K22">
+        <v>0.03656761744464056</v>
+      </c>
+      <c r="L22">
+        <v>0.009673718743056876</v>
+      </c>
+      <c r="M22">
+        <v>-0.004240028852179621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.01792683993877878</v>
+        <v>-0.04464373836515409</v>
       </c>
       <c r="C23">
-        <v>0.04101640926412853</v>
+        <v>0.02936837498541967</v>
       </c>
       <c r="D23">
-        <v>0.06150854611799789</v>
+        <v>0.6541940628216837</v>
       </c>
       <c r="E23">
-        <v>0.5231021371004512</v>
+        <v>-0.06486170822406956</v>
       </c>
       <c r="F23">
-        <v>-0.2442048765478192</v>
+        <v>0.05131717686759813</v>
       </c>
       <c r="G23">
-        <v>0.1334204207442311</v>
+        <v>0.1372480734278236</v>
       </c>
       <c r="H23">
-        <v>-0.1363635422747562</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1057451029849234</v>
+      </c>
+      <c r="I23">
+        <v>0.01394498735702793</v>
+      </c>
+      <c r="J23">
+        <v>0.02545236691976496</v>
+      </c>
+      <c r="K23">
+        <v>0.0387045032643567</v>
+      </c>
+      <c r="L23">
+        <v>0.007573535273317018</v>
+      </c>
+      <c r="M23">
+        <v>-0.004978215720130804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07781465433115281</v>
+        <v>-0.07516370155240312</v>
       </c>
       <c r="C24">
-        <v>0.0648221993527118</v>
+        <v>0.07334479646631741</v>
       </c>
       <c r="D24">
-        <v>-0.02036343501913159</v>
+        <v>-0.01510785926176093</v>
       </c>
       <c r="E24">
-        <v>0.03451624419301698</v>
+        <v>-0.0190853911990522</v>
       </c>
       <c r="F24">
-        <v>-0.02268921442875233</v>
+        <v>-0.1195594849204232</v>
       </c>
       <c r="G24">
-        <v>-0.06795382016393206</v>
+        <v>-0.008946629469582161</v>
       </c>
       <c r="H24">
-        <v>0.006307609092428162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.04204997308595342</v>
+      </c>
+      <c r="I24">
+        <v>0.05382567642644101</v>
+      </c>
+      <c r="J24">
+        <v>-0.03984573867193654</v>
+      </c>
+      <c r="K24">
+        <v>0.06732762558844137</v>
+      </c>
+      <c r="L24">
+        <v>-0.04300195000595729</v>
+      </c>
+      <c r="M24">
+        <v>-0.1042727629218974</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.07608044189282748</v>
+        <v>-0.07304994275112095</v>
       </c>
       <c r="C25">
-        <v>0.04142207635427093</v>
+        <v>0.05154519588924977</v>
       </c>
       <c r="D25">
-        <v>-0.02472938219909942</v>
+        <v>-0.03434403265374831</v>
       </c>
       <c r="E25">
-        <v>0.03605692504491043</v>
+        <v>-0.01067597088933493</v>
       </c>
       <c r="F25">
-        <v>-0.02698691894259547</v>
+        <v>-0.120745040212237</v>
       </c>
       <c r="G25">
-        <v>-0.06745151678790039</v>
+        <v>-3.207103537181381e-06</v>
       </c>
       <c r="H25">
-        <v>0.02748307541838582</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.0295212585492251</v>
+      </c>
+      <c r="I25">
+        <v>0.04978844120301313</v>
+      </c>
+      <c r="J25">
+        <v>-0.04345814654359279</v>
+      </c>
+      <c r="K25">
+        <v>0.06852778486794414</v>
+      </c>
+      <c r="L25">
+        <v>-0.05924368628542733</v>
+      </c>
+      <c r="M25">
+        <v>-0.1104617313058815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.05082487758530092</v>
+        <v>-0.04380437730973506</v>
       </c>
       <c r="C26">
-        <v>0.04101068418656093</v>
+        <v>0.01700388717324595</v>
       </c>
       <c r="D26">
-        <v>-0.03679905635762314</v>
+        <v>0.01105154153330903</v>
       </c>
       <c r="E26">
-        <v>0.005789463809524414</v>
+        <v>-0.003591870943180196</v>
       </c>
       <c r="F26">
-        <v>-0.02368385347378138</v>
+        <v>-0.05128870680226137</v>
       </c>
       <c r="G26">
-        <v>0.01750361378902599</v>
+        <v>0.01641996586643094</v>
       </c>
       <c r="H26">
-        <v>0.01916253953744531</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.01109739349387558</v>
+      </c>
+      <c r="I26">
+        <v>0.009099820677053781</v>
+      </c>
+      <c r="J26">
+        <v>0.006859271564224076</v>
+      </c>
+      <c r="K26">
+        <v>-0.1249211863537807</v>
+      </c>
+      <c r="L26">
+        <v>0.02828928497947133</v>
+      </c>
+      <c r="M26">
+        <v>-0.0566684471437937</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09522029127020157</v>
+        <v>-0.1454385981002822</v>
       </c>
       <c r="C28">
-        <v>-0.2934303491363973</v>
+        <v>-0.2856373780370091</v>
       </c>
       <c r="D28">
-        <v>-0.0639506171035894</v>
+        <v>-0.008015939614048777</v>
       </c>
       <c r="E28">
-        <v>0.008768985832224026</v>
+        <v>-0.02278651381574033</v>
       </c>
       <c r="F28">
-        <v>0.03817670442064557</v>
+        <v>-0.004268940216110521</v>
       </c>
       <c r="G28">
-        <v>-0.0137045898308294</v>
+        <v>-0.003034020613019759</v>
       </c>
       <c r="H28">
-        <v>-0.06792492232140489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01976670314822075</v>
+      </c>
+      <c r="I28">
+        <v>-0.0206495239825511</v>
+      </c>
+      <c r="J28">
+        <v>-0.02369856793559386</v>
+      </c>
+      <c r="K28">
+        <v>-0.0129589284279949</v>
+      </c>
+      <c r="L28">
+        <v>0.01663147202113719</v>
+      </c>
+      <c r="M28">
+        <v>0.005577173201388375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05284538896148479</v>
+        <v>-0.04016487533862319</v>
       </c>
       <c r="C29">
-        <v>0.01613580920009318</v>
+        <v>0.02677367484224934</v>
       </c>
       <c r="D29">
-        <v>-0.008352949058651851</v>
+        <v>-0.005694340725744246</v>
       </c>
       <c r="E29">
-        <v>0.02887379589826438</v>
+        <v>-0.008614173367971956</v>
       </c>
       <c r="F29">
-        <v>-0.01481030261056719</v>
+        <v>-0.07300583975687272</v>
       </c>
       <c r="G29">
-        <v>0.01322198311040431</v>
+        <v>0.01991110613531953</v>
       </c>
       <c r="H29">
-        <v>0.03507753381369955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.008846334826686021</v>
+      </c>
+      <c r="I29">
+        <v>-0.0102989131880527</v>
+      </c>
+      <c r="J29">
+        <v>0.01045667595887766</v>
+      </c>
+      <c r="K29">
+        <v>-0.09289380627627078</v>
+      </c>
+      <c r="L29">
+        <v>-0.01910284446670018</v>
+      </c>
+      <c r="M29">
+        <v>-0.01615236914848515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1271515531104098</v>
+        <v>-0.1052834599189364</v>
       </c>
       <c r="C30">
-        <v>0.04880937225710129</v>
+        <v>0.05971754419131322</v>
       </c>
       <c r="D30">
-        <v>-0.05348969571183149</v>
+        <v>-0.005217462800895391</v>
       </c>
       <c r="E30">
-        <v>0.1133504733366872</v>
+        <v>-0.02287594841140437</v>
       </c>
       <c r="F30">
-        <v>0.03010266908162742</v>
+        <v>-0.2268114774243005</v>
       </c>
       <c r="G30">
-        <v>-0.1653488356168331</v>
+        <v>0.1638518270646536</v>
       </c>
       <c r="H30">
-        <v>0.06478196661064961</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2451985005960421</v>
+      </c>
+      <c r="I30">
+        <v>-0.1309483490148999</v>
+      </c>
+      <c r="J30">
+        <v>-0.0284059121037527</v>
+      </c>
+      <c r="K30">
+        <v>-0.1052004769761442</v>
+      </c>
+      <c r="L30">
+        <v>-0.08760157419488356</v>
+      </c>
+      <c r="M30">
+        <v>0.4740000428717278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04927715398872904</v>
+        <v>-0.03805673809891579</v>
       </c>
       <c r="C31">
-        <v>0.02120123963454781</v>
+        <v>0.05069790706299759</v>
       </c>
       <c r="D31">
-        <v>0.01017884392101551</v>
+        <v>0.003963805098643014</v>
       </c>
       <c r="E31">
-        <v>0.003153524120805888</v>
+        <v>0.008557141200103554</v>
       </c>
       <c r="F31">
-        <v>-0.02236278515428518</v>
+        <v>-0.02855757067051426</v>
       </c>
       <c r="G31">
-        <v>0.03622090437658536</v>
+        <v>0.01331260751203114</v>
       </c>
       <c r="H31">
-        <v>-0.002957500562132514</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04470276387797309</v>
+      </c>
+      <c r="I31">
+        <v>0.003193885758867625</v>
+      </c>
+      <c r="J31">
+        <v>0.004861226813219243</v>
+      </c>
+      <c r="K31">
+        <v>-0.02240770649471463</v>
+      </c>
+      <c r="L31">
+        <v>-0.03181310965357898</v>
+      </c>
+      <c r="M31">
+        <v>-0.002517632730029861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01515377404424081</v>
+        <v>-0.04367376243400078</v>
       </c>
       <c r="C32">
-        <v>-0.01812358815989019</v>
+        <v>-0.002063743674978489</v>
       </c>
       <c r="D32">
-        <v>0.001798245238710118</v>
+        <v>-0.01346511091323048</v>
       </c>
       <c r="E32">
-        <v>0.07751186588835945</v>
+        <v>0.01747898841447459</v>
       </c>
       <c r="F32">
-        <v>-0.09913381461709606</v>
+        <v>-0.0853602913376954</v>
       </c>
       <c r="G32">
-        <v>-0.05085870661236271</v>
+        <v>-0.01887519215914569</v>
       </c>
       <c r="H32">
-        <v>-0.01013548705259091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.0349976248977128</v>
+      </c>
+      <c r="I32">
+        <v>0.04740909606875588</v>
+      </c>
+      <c r="J32">
+        <v>-0.04026415082831789</v>
+      </c>
+      <c r="K32">
+        <v>-0.05425636122711624</v>
+      </c>
+      <c r="L32">
+        <v>-0.02154200706424379</v>
+      </c>
+      <c r="M32">
+        <v>0.1605638228919282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1074759293342011</v>
+        <v>-0.09853656154411312</v>
       </c>
       <c r="C33">
-        <v>0.03808965069496259</v>
+        <v>0.06543129513250111</v>
       </c>
       <c r="D33">
-        <v>-0.004213163167264338</v>
+        <v>-0.01695696566793146</v>
       </c>
       <c r="E33">
-        <v>0.01689129634777514</v>
+        <v>0.008043694589075752</v>
       </c>
       <c r="F33">
-        <v>-0.05198422086109877</v>
+        <v>-0.08184777274806045</v>
       </c>
       <c r="G33">
-        <v>-0.02189024553369915</v>
+        <v>0.01836837852347508</v>
       </c>
       <c r="H33">
-        <v>0.02531395699471026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.001157637531679718</v>
+      </c>
+      <c r="I33">
+        <v>0.02233235083546829</v>
+      </c>
+      <c r="J33">
+        <v>0.03773040396862854</v>
+      </c>
+      <c r="K33">
+        <v>-0.02936381189734505</v>
+      </c>
+      <c r="L33">
+        <v>-0.009200340223569175</v>
+      </c>
+      <c r="M33">
+        <v>-0.003518927289364187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05689156851620088</v>
+        <v>-0.06359706626532168</v>
       </c>
       <c r="C34">
-        <v>0.0683992376444859</v>
+        <v>0.06487524023551439</v>
       </c>
       <c r="D34">
-        <v>-0.007530260941127275</v>
+        <v>-0.0231020534814648</v>
       </c>
       <c r="E34">
-        <v>0.01583011850324847</v>
+        <v>-0.005604171438356148</v>
       </c>
       <c r="F34">
-        <v>-0.02278431654777172</v>
+        <v>-0.1112938036012503</v>
       </c>
       <c r="G34">
-        <v>-0.0491702591935949</v>
+        <v>-0.004383576135950393</v>
       </c>
       <c r="H34">
-        <v>-0.001925177824792215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.02005653883496721</v>
+      </c>
+      <c r="I34">
+        <v>0.05003562133675774</v>
+      </c>
+      <c r="J34">
+        <v>-0.06223579283873103</v>
+      </c>
+      <c r="K34">
+        <v>0.01850824245274264</v>
+      </c>
+      <c r="L34">
+        <v>-0.04542370915639035</v>
+      </c>
+      <c r="M34">
+        <v>-0.1193111675016416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04625357663459131</v>
+        <v>-0.02567942859849904</v>
       </c>
       <c r="C35">
-        <v>0.0359176331255946</v>
+        <v>0.02598028652248096</v>
       </c>
       <c r="D35">
-        <v>0.006449212571925766</v>
+        <v>0.0009433763342752398</v>
       </c>
       <c r="E35">
-        <v>0.01895167436681178</v>
+        <v>0.0122884228222445</v>
       </c>
       <c r="F35">
-        <v>0.005806309816208263</v>
+        <v>-0.04072631787497457</v>
       </c>
       <c r="G35">
-        <v>-0.004918752096657967</v>
+        <v>0.01799634228743023</v>
       </c>
       <c r="H35">
-        <v>0.02080107920594399</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.02073487591899026</v>
+      </c>
+      <c r="I35">
+        <v>0.01638897611963885</v>
+      </c>
+      <c r="J35">
+        <v>-0.05095372147985386</v>
+      </c>
+      <c r="K35">
+        <v>-0.06041085297717542</v>
+      </c>
+      <c r="L35">
+        <v>-0.03282861506785616</v>
+      </c>
+      <c r="M35">
+        <v>-0.01000639888612484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03596379096343478</v>
+        <v>-0.02754225496199127</v>
       </c>
       <c r="C36">
-        <v>0.02014309967135007</v>
+        <v>0.01697607302918475</v>
       </c>
       <c r="D36">
-        <v>-0.02516659192891463</v>
+        <v>0.01212226520534968</v>
       </c>
       <c r="E36">
-        <v>0.03345315105548192</v>
+        <v>-0.01124463430710986</v>
       </c>
       <c r="F36">
-        <v>-0.02710676325673735</v>
+        <v>-0.06732984646423967</v>
       </c>
       <c r="G36">
-        <v>-0.004421518580214206</v>
+        <v>0.006701383080584046</v>
       </c>
       <c r="H36">
-        <v>0.04875815121279457</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.009064344845305435</v>
+      </c>
+      <c r="I36">
+        <v>-0.01263859728348935</v>
+      </c>
+      <c r="J36">
+        <v>0.02723511723784276</v>
+      </c>
+      <c r="K36">
+        <v>-0.03653986004192105</v>
+      </c>
+      <c r="L36">
+        <v>-0.01255217432515409</v>
+      </c>
+      <c r="M36">
+        <v>-0.05739822733289986</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.05014433590009043</v>
+        <v>-0.02872758174719896</v>
       </c>
       <c r="C38">
-        <v>0.03939450989708591</v>
+        <v>0.04748920807983897</v>
       </c>
       <c r="D38">
-        <v>-0.006105050214467866</v>
+        <v>0.01995836032238625</v>
       </c>
       <c r="E38">
-        <v>0.02562038436036356</v>
+        <v>-0.01172963418650991</v>
       </c>
       <c r="F38">
-        <v>-0.04097168859019277</v>
+        <v>0.04724838036341819</v>
       </c>
       <c r="G38">
-        <v>-0.0243171016245827</v>
+        <v>0.0505995526493255</v>
       </c>
       <c r="H38">
-        <v>-0.01071546901181428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.002845887448313132</v>
+      </c>
+      <c r="I38">
+        <v>0.01660962857863213</v>
+      </c>
+      <c r="J38">
+        <v>-0.002584661598225719</v>
+      </c>
+      <c r="K38">
+        <v>-0.07719676606899628</v>
+      </c>
+      <c r="L38">
+        <v>0.1035551916322033</v>
+      </c>
+      <c r="M38">
+        <v>0.07554171140985137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.1009918753829393</v>
+        <v>-0.1042740005700119</v>
       </c>
       <c r="C39">
-        <v>0.07969285371584088</v>
+        <v>0.09360808782270842</v>
       </c>
       <c r="D39">
-        <v>-0.0007197216778799024</v>
+        <v>-0.08685763022028317</v>
       </c>
       <c r="E39">
-        <v>0.03090520061620444</v>
+        <v>0.02631266047974121</v>
       </c>
       <c r="F39">
-        <v>-0.01546476479443196</v>
+        <v>-0.1640903047666257</v>
       </c>
       <c r="G39">
-        <v>-0.1183900545023701</v>
+        <v>0.1002019679814266</v>
       </c>
       <c r="H39">
-        <v>-0.06906859627323142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.09158750209104145</v>
+      </c>
+      <c r="I39">
+        <v>0.04344085592947242</v>
+      </c>
+      <c r="J39">
+        <v>-0.145468494781865</v>
+      </c>
+      <c r="K39">
+        <v>0.1293978581681242</v>
+      </c>
+      <c r="L39">
+        <v>-0.09422184759561691</v>
+      </c>
+      <c r="M39">
+        <v>0.005877463981436901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04610977255858788</v>
+        <v>-0.03292172913527693</v>
       </c>
       <c r="C40">
-        <v>0.03008411913940162</v>
+        <v>0.05993531462784085</v>
       </c>
       <c r="D40">
-        <v>0.04485390792984047</v>
+        <v>0.04313335045353073</v>
       </c>
       <c r="E40">
-        <v>0.1180713858503612</v>
+        <v>-0.009836016695343197</v>
       </c>
       <c r="F40">
-        <v>-0.06509774584072688</v>
+        <v>-0.1099982313874155</v>
       </c>
       <c r="G40">
-        <v>-0.1359265412862722</v>
+        <v>-0.03662132258391208</v>
       </c>
       <c r="H40">
-        <v>-0.01431663133834163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08236115281568437</v>
+      </c>
+      <c r="I40">
+        <v>0.02661509513986584</v>
+      </c>
+      <c r="J40">
+        <v>0.005828051821182005</v>
+      </c>
+      <c r="K40">
+        <v>-0.07044206214348944</v>
+      </c>
+      <c r="L40">
+        <v>0.1125831364297127</v>
+      </c>
+      <c r="M40">
+        <v>0.1046725696150805</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04753427211224425</v>
+        <v>-0.0401624120586266</v>
       </c>
       <c r="C41">
-        <v>0.04352732754358481</v>
+        <v>0.03897401095576233</v>
       </c>
       <c r="D41">
-        <v>-0.003141086184878954</v>
+        <v>-0.01532304602303755</v>
       </c>
       <c r="E41">
-        <v>-0.005897933444253912</v>
+        <v>0.007311906067291443</v>
       </c>
       <c r="F41">
-        <v>-0.02564245695160805</v>
+        <v>-0.02669584165044421</v>
       </c>
       <c r="G41">
-        <v>-0.01966079489960983</v>
+        <v>0.02440934864619606</v>
       </c>
       <c r="H41">
-        <v>-0.009724499283441218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.001937842758067033</v>
+      </c>
+      <c r="I41">
+        <v>0.0158335503624178</v>
+      </c>
+      <c r="J41">
+        <v>-0.03161455427575596</v>
+      </c>
+      <c r="K41">
+        <v>-0.04476676060402308</v>
+      </c>
+      <c r="L41">
+        <v>0.005847976800918113</v>
+      </c>
+      <c r="M41">
+        <v>-0.01217562785258178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.06341630927738283</v>
+        <v>-0.05081756755447112</v>
       </c>
       <c r="C43">
-        <v>0.03428942426164126</v>
+        <v>0.04558110257204739</v>
       </c>
       <c r="D43">
-        <v>-0.02488250727360627</v>
+        <v>0.01161869080263805</v>
       </c>
       <c r="E43">
-        <v>0.02921756794174344</v>
+        <v>-0.007549850016147582</v>
       </c>
       <c r="F43">
-        <v>-0.02086149588904498</v>
+        <v>-0.01794326281875963</v>
       </c>
       <c r="G43">
-        <v>-0.00200155661976536</v>
+        <v>0.05154755064941911</v>
       </c>
       <c r="H43">
-        <v>-0.003462392771496047</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.006990919604087795</v>
+      </c>
+      <c r="I43">
+        <v>-0.01267259567816894</v>
+      </c>
+      <c r="J43">
+        <v>-0.04261948620259159</v>
+      </c>
+      <c r="K43">
+        <v>-0.02292510039061478</v>
+      </c>
+      <c r="L43">
+        <v>-0.005722272811523699</v>
+      </c>
+      <c r="M43">
+        <v>-0.02972015853082802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05285160562918569</v>
+        <v>-0.08552187432965885</v>
       </c>
       <c r="C44">
-        <v>0.02046937663462796</v>
+        <v>0.06274497038878095</v>
       </c>
       <c r="D44">
-        <v>-0.082223287835038</v>
+        <v>0.07584528180987453</v>
       </c>
       <c r="E44">
-        <v>0.07565566634396222</v>
+        <v>-0.07633030522039279</v>
       </c>
       <c r="F44">
-        <v>-0.02087229967001369</v>
+        <v>-0.1736694815529598</v>
       </c>
       <c r="G44">
-        <v>-0.1158709219338557</v>
+        <v>0.003181431378978891</v>
       </c>
       <c r="H44">
-        <v>0.02766683239639472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.02107086216058492</v>
+      </c>
+      <c r="I44">
+        <v>0.0351948351675504</v>
+      </c>
+      <c r="J44">
+        <v>-0.02546691815722758</v>
+      </c>
+      <c r="K44">
+        <v>-0.02765243680757678</v>
+      </c>
+      <c r="L44">
+        <v>0.03250578206524592</v>
+      </c>
+      <c r="M44">
+        <v>0.07806527052694311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.02901106449245471</v>
+        <v>-0.0344084295049833</v>
       </c>
       <c r="C46">
-        <v>0.04300069671250509</v>
+        <v>0.03924752762614301</v>
       </c>
       <c r="D46">
-        <v>-0.01472986220360088</v>
+        <v>0.03706880720365901</v>
       </c>
       <c r="E46">
-        <v>0.04192727628400483</v>
+        <v>-0.03770795846842139</v>
       </c>
       <c r="F46">
-        <v>-0.01186880356278109</v>
+        <v>-0.05611948307827697</v>
       </c>
       <c r="G46">
-        <v>-0.000404978712227047</v>
+        <v>-0.002820940601510382</v>
       </c>
       <c r="H46">
-        <v>0.03165543540524113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.003087422142962979</v>
+      </c>
+      <c r="I46">
+        <v>0.03292056445625123</v>
+      </c>
+      <c r="J46">
+        <v>0.01786635451541045</v>
+      </c>
+      <c r="K46">
+        <v>-0.1181148834551622</v>
+      </c>
+      <c r="L46">
+        <v>-0.03367021743776626</v>
+      </c>
+      <c r="M46">
+        <v>-0.03322171518456075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.02760407468155427</v>
+        <v>-0.04118621871206461</v>
       </c>
       <c r="C47">
-        <v>0.00780563509175082</v>
+        <v>0.02817454110971631</v>
       </c>
       <c r="D47">
-        <v>-0.000414213764131726</v>
+        <v>0.01646105194512168</v>
       </c>
       <c r="E47">
-        <v>0.05713433472323533</v>
+        <v>-0.008415722331694683</v>
       </c>
       <c r="F47">
-        <v>-0.01466748777790644</v>
+        <v>-0.0364258624379387</v>
       </c>
       <c r="G47">
-        <v>0.01337420671240825</v>
+        <v>0.006183976335295389</v>
       </c>
       <c r="H47">
-        <v>0.04007660538792473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.008460776582043836</v>
+      </c>
+      <c r="I47">
+        <v>-0.02503646433380417</v>
+      </c>
+      <c r="J47">
+        <v>0.008382240184803092</v>
+      </c>
+      <c r="K47">
+        <v>-0.05100405278523142</v>
+      </c>
+      <c r="L47">
+        <v>0.006539905190952295</v>
+      </c>
+      <c r="M47">
+        <v>-0.05018864722956587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03883355776581071</v>
+        <v>-0.04275073701268461</v>
       </c>
       <c r="C48">
-        <v>0.02472769640535235</v>
+        <v>0.02071076449542681</v>
       </c>
       <c r="D48">
-        <v>0.003187884984538481</v>
+        <v>0.008912258372585915</v>
       </c>
       <c r="E48">
-        <v>0.0521774854917052</v>
+        <v>-0.005227151068282167</v>
       </c>
       <c r="F48">
-        <v>-0.03463631236045567</v>
+        <v>-0.07286785069772062</v>
       </c>
       <c r="G48">
-        <v>0.01395693337087402</v>
+        <v>-0.02481188111635059</v>
       </c>
       <c r="H48">
-        <v>0.004792355426315534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.0253627784898334</v>
+      </c>
+      <c r="I48">
+        <v>-0.00892081945570003</v>
+      </c>
+      <c r="J48">
+        <v>0.001194325563836582</v>
+      </c>
+      <c r="K48">
+        <v>-0.03871795176017624</v>
+      </c>
+      <c r="L48">
+        <v>-0.04067400624718483</v>
+      </c>
+      <c r="M48">
+        <v>-0.05405565298831602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2199690489950275</v>
+        <v>-0.224562414025379</v>
       </c>
       <c r="C49">
-        <v>0.1086903221086727</v>
+        <v>0.07095762568908279</v>
       </c>
       <c r="D49">
-        <v>-0.04430684740778322</v>
+        <v>-0.05353948441177638</v>
       </c>
       <c r="E49">
-        <v>-0.03186721417356334</v>
+        <v>-0.06700967201164214</v>
       </c>
       <c r="F49">
-        <v>0.1881847180978</v>
+        <v>0.2349686533642932</v>
       </c>
       <c r="G49">
-        <v>-0.03060264759022657</v>
+        <v>-0.1091319479383078</v>
       </c>
       <c r="H49">
-        <v>-0.081242557059878</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.177701322780665</v>
+      </c>
+      <c r="I49">
+        <v>0.1142748381165547</v>
+      </c>
+      <c r="J49">
+        <v>-0.01221442660684734</v>
+      </c>
+      <c r="K49">
+        <v>0.1478472226428799</v>
+      </c>
+      <c r="L49">
+        <v>-0.01058157116562404</v>
+      </c>
+      <c r="M49">
+        <v>-0.07498602071618136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05672143190087568</v>
+        <v>-0.04657913922921336</v>
       </c>
       <c r="C50">
-        <v>0.02490816459777696</v>
+        <v>0.0398525506023461</v>
       </c>
       <c r="D50">
-        <v>0.005947308228262468</v>
+        <v>0.0002149327572256504</v>
       </c>
       <c r="E50">
-        <v>0.02211995079533403</v>
+        <v>0.01196337160852792</v>
       </c>
       <c r="F50">
-        <v>-0.05478644712201173</v>
+        <v>-0.05004596341403578</v>
       </c>
       <c r="G50">
-        <v>0.04449188839137077</v>
+        <v>0.03151146373648708</v>
       </c>
       <c r="H50">
-        <v>0.04760736620211513</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.0279928583082901</v>
+      </c>
+      <c r="I50">
+        <v>-0.006845533179757506</v>
+      </c>
+      <c r="J50">
+        <v>0.0279590636274903</v>
+      </c>
+      <c r="K50">
+        <v>-0.04513930570488701</v>
+      </c>
+      <c r="L50">
+        <v>-0.0273534863459089</v>
+      </c>
+      <c r="M50">
+        <v>0.003779689784287451</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.02926274420698037</v>
+        <v>-0.02642231180688438</v>
       </c>
       <c r="C51">
-        <v>0.01498751305546471</v>
+        <v>0.005500096577791169</v>
       </c>
       <c r="D51">
-        <v>-0.006662187525783273</v>
+        <v>-0.001491758665573185</v>
       </c>
       <c r="E51">
-        <v>-0.00143847571759972</v>
+        <v>-0.01721688628438865</v>
       </c>
       <c r="F51">
-        <v>-0.01525160544497443</v>
+        <v>0.0241372549317823</v>
       </c>
       <c r="G51">
-        <v>-0.01041229310230015</v>
+        <v>-2.869677973100931e-06</v>
       </c>
       <c r="H51">
-        <v>-0.02154332785418737</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.004708533154184031</v>
+      </c>
+      <c r="I51">
+        <v>0.009348575342490197</v>
+      </c>
+      <c r="J51">
+        <v>-0.04100948291983542</v>
+      </c>
+      <c r="K51">
+        <v>0.05864593261782149</v>
+      </c>
+      <c r="L51">
+        <v>-0.02293522209930896</v>
+      </c>
+      <c r="M51">
+        <v>0.001873576422477755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.03859172743759791</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01352228747171522</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01689706007371547</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0001141814825876614</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01731277420349269</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.05423795536559365</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.01324233802739686</v>
+      </c>
+      <c r="I52">
+        <v>0.005493139737537728</v>
+      </c>
+      <c r="J52">
+        <v>0.03462562675728683</v>
+      </c>
+      <c r="K52">
+        <v>0.01912638923126568</v>
+      </c>
+      <c r="L52">
+        <v>-0.02484152236412131</v>
+      </c>
+      <c r="M52">
+        <v>0.04544098705254128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1706035055515858</v>
+        <v>-0.161073878539624</v>
       </c>
       <c r="C53">
-        <v>-0.0001115142622395253</v>
+        <v>0.04716176279050547</v>
       </c>
       <c r="D53">
-        <v>-0.02276625348711602</v>
+        <v>-0.01621589441129665</v>
       </c>
       <c r="E53">
-        <v>-0.11473006392162</v>
+        <v>0.00312586926025233</v>
       </c>
       <c r="F53">
-        <v>-0.2127196636775861</v>
+        <v>0.06860575443373927</v>
       </c>
       <c r="G53">
-        <v>0.03605723259763786</v>
+        <v>0.1756767805737366</v>
       </c>
       <c r="H53">
-        <v>0.08107128825822844</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.1903683822326384</v>
+      </c>
+      <c r="I53">
+        <v>0.06980553793833752</v>
+      </c>
+      <c r="J53">
+        <v>0.1214045848844176</v>
+      </c>
+      <c r="K53">
+        <v>-0.007403918092647708</v>
+      </c>
+      <c r="L53">
+        <v>0.002428613645357175</v>
+      </c>
+      <c r="M53">
+        <v>0.07796604923766767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05073566166140626</v>
+        <v>-0.05489081218244727</v>
       </c>
       <c r="C54">
-        <v>0.02991728802276487</v>
+        <v>0.04283431136980523</v>
       </c>
       <c r="D54">
-        <v>-0.02516981999773982</v>
+        <v>0.01637827576808873</v>
       </c>
       <c r="E54">
-        <v>0.05342025759471633</v>
+        <v>-0.01210210558401232</v>
       </c>
       <c r="F54">
-        <v>-0.02980362700602202</v>
+        <v>-0.1371171690372366</v>
       </c>
       <c r="G54">
-        <v>-0.01033000779981013</v>
+        <v>-0.03294011080281411</v>
       </c>
       <c r="H54">
-        <v>0.05163594527255489</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03148143515623662</v>
+      </c>
+      <c r="I54">
+        <v>-0.04514713628933813</v>
+      </c>
+      <c r="J54">
+        <v>-0.009039668660134037</v>
+      </c>
+      <c r="K54">
+        <v>-0.1363943120150276</v>
+      </c>
+      <c r="L54">
+        <v>-0.01779984074776032</v>
+      </c>
+      <c r="M54">
+        <v>-0.0418841012019582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09165196792707152</v>
+        <v>-0.08525140151325498</v>
       </c>
       <c r="C55">
-        <v>0.001394531845501258</v>
+        <v>0.03812837888067339</v>
       </c>
       <c r="D55">
-        <v>-0.01687537267162361</v>
+        <v>-0.02966419044220572</v>
       </c>
       <c r="E55">
-        <v>-0.04268498424526073</v>
+        <v>-0.008212299564153315</v>
       </c>
       <c r="F55">
-        <v>-0.1761845402396104</v>
+        <v>0.001229632909490503</v>
       </c>
       <c r="G55">
-        <v>0.03964432342237258</v>
+        <v>0.09273085000837154</v>
       </c>
       <c r="H55">
-        <v>0.09644839195656428</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.142045305477307</v>
+      </c>
+      <c r="I55">
+        <v>0.04579457583600225</v>
+      </c>
+      <c r="J55">
+        <v>0.0617673732370022</v>
+      </c>
+      <c r="K55">
+        <v>-0.008433290395616834</v>
+      </c>
+      <c r="L55">
+        <v>0.001784394360953221</v>
+      </c>
+      <c r="M55">
+        <v>-0.02754736340556789</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1654516430445418</v>
+        <v>-0.1515428374246222</v>
       </c>
       <c r="C56">
-        <v>0.005394637018449513</v>
+        <v>0.06637162215545399</v>
       </c>
       <c r="D56">
-        <v>-0.02090696928367097</v>
+        <v>-0.03546028102918708</v>
       </c>
       <c r="E56">
-        <v>-0.1082295968902921</v>
+        <v>-0.0230712063799701</v>
       </c>
       <c r="F56">
-        <v>-0.2121590142143512</v>
+        <v>0.04276187040184242</v>
       </c>
       <c r="G56">
-        <v>0.07028149632994166</v>
+        <v>0.1637438093256727</v>
       </c>
       <c r="H56">
-        <v>0.0548465806620832</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1767040278208869</v>
+      </c>
+      <c r="I56">
+        <v>0.07342069749849936</v>
+      </c>
+      <c r="J56">
+        <v>0.1021945343844517</v>
+      </c>
+      <c r="K56">
+        <v>0.005533143311816903</v>
+      </c>
+      <c r="L56">
+        <v>0.04888965478993029</v>
+      </c>
+      <c r="M56">
+        <v>0.02692687470510353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02713147158088819</v>
+        <v>-0.03875181186578835</v>
       </c>
       <c r="C58">
-        <v>0.04987859798426351</v>
+        <v>0.03560192836697921</v>
       </c>
       <c r="D58">
-        <v>0.02565188001316034</v>
+        <v>0.08256155455276519</v>
       </c>
       <c r="E58">
-        <v>0.4077970774885032</v>
+        <v>-0.01989959224502757</v>
       </c>
       <c r="F58">
-        <v>0.3141105753984194</v>
+        <v>-0.03940516733705753</v>
       </c>
       <c r="G58">
-        <v>0.1903479276345504</v>
+        <v>0.005624067177685621</v>
       </c>
       <c r="H58">
-        <v>0.04235713932734593</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1388570161090931</v>
+      </c>
+      <c r="I58">
+        <v>-0.05769821306027195</v>
+      </c>
+      <c r="J58">
+        <v>-0.182011938767602</v>
+      </c>
+      <c r="K58">
+        <v>0.06662848172057981</v>
+      </c>
+      <c r="L58">
+        <v>-0.4545941638583162</v>
+      </c>
+      <c r="M58">
+        <v>-0.006468578145475137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.2028372936368615</v>
+        <v>-0.2269524826429267</v>
       </c>
       <c r="C59">
-        <v>-0.4046185939579641</v>
+        <v>-0.2941128891567302</v>
       </c>
       <c r="D59">
-        <v>-0.07911855116628</v>
+        <v>-0.03952280210272095</v>
       </c>
       <c r="E59">
-        <v>-0.0002513291463175966</v>
+        <v>-0.001936092256285261</v>
       </c>
       <c r="F59">
-        <v>-0.0584885170795979</v>
+        <v>-0.01891264902879754</v>
       </c>
       <c r="G59">
-        <v>-0.0710795860708313</v>
+        <v>0.01977787893922361</v>
       </c>
       <c r="H59">
-        <v>-0.01988311996827792</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.1164879370822977</v>
+      </c>
+      <c r="I59">
+        <v>0.02734092009727358</v>
+      </c>
+      <c r="J59">
+        <v>-0.03558553377146843</v>
+      </c>
+      <c r="K59">
+        <v>0.08571481781223758</v>
+      </c>
+      <c r="L59">
+        <v>0.07414772319790028</v>
+      </c>
+      <c r="M59">
+        <v>0.05553502592828936</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2631538214798971</v>
+        <v>-0.2400782967272187</v>
       </c>
       <c r="C60">
-        <v>0.06895246761393461</v>
+        <v>0.1216717038206286</v>
       </c>
       <c r="D60">
-        <v>-0.08319851686659641</v>
+        <v>-0.06603584656890765</v>
       </c>
       <c r="E60">
-        <v>-0.02374408463635427</v>
+        <v>-0.0531741457999676</v>
       </c>
       <c r="F60">
-        <v>0.07958016331084007</v>
+        <v>0.1379301848193343</v>
       </c>
       <c r="G60">
-        <v>0.03866247898270655</v>
+        <v>-0.03536987974224557</v>
       </c>
       <c r="H60">
-        <v>-0.03728869170736369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.08181499346196149</v>
+      </c>
+      <c r="I60">
+        <v>-0.06840285867458644</v>
+      </c>
+      <c r="J60">
+        <v>0.1582710978855009</v>
+      </c>
+      <c r="K60">
+        <v>0.1780203544757226</v>
+      </c>
+      <c r="L60">
+        <v>-0.002525984235276412</v>
+      </c>
+      <c r="M60">
+        <v>0.06481021076369067</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08814511149649007</v>
+        <v>-0.1031212520579484</v>
       </c>
       <c r="C61">
-        <v>0.04870668099071793</v>
+        <v>0.06545687373553717</v>
       </c>
       <c r="D61">
-        <v>-0.009606123084475327</v>
+        <v>-0.04920503560919143</v>
       </c>
       <c r="E61">
-        <v>-0.002171859567292681</v>
+        <v>-0.005918016557121286</v>
       </c>
       <c r="F61">
-        <v>-0.01954059704591705</v>
+        <v>-0.1427314634264356</v>
       </c>
       <c r="G61">
-        <v>-0.04252017413173321</v>
+        <v>0.09132154738182119</v>
       </c>
       <c r="H61">
-        <v>-0.0629209607040962</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.0296308630547194</v>
+      </c>
+      <c r="I61">
+        <v>0.04934152381597799</v>
+      </c>
+      <c r="J61">
+        <v>-0.0844837480506519</v>
+      </c>
+      <c r="K61">
+        <v>0.01896700806460409</v>
+      </c>
+      <c r="L61">
+        <v>-0.04317152453323693</v>
+      </c>
+      <c r="M61">
+        <v>-0.01786190771965933</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1561137427590613</v>
+        <v>-0.1428880792232403</v>
       </c>
       <c r="C62">
-        <v>0.03124321689795561</v>
+        <v>0.06984406586880462</v>
       </c>
       <c r="D62">
-        <v>0.01854089641573158</v>
+        <v>-0.0330835669476502</v>
       </c>
       <c r="E62">
-        <v>-0.1711430857758373</v>
+        <v>0.02135121559115165</v>
       </c>
       <c r="F62">
-        <v>-0.2030895601710147</v>
+        <v>0.05134093537580239</v>
       </c>
       <c r="G62">
-        <v>0.005435359476095179</v>
+        <v>0.1166489712753752</v>
       </c>
       <c r="H62">
-        <v>0.04766320808637918</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.1631863495638503</v>
+      </c>
+      <c r="I62">
+        <v>0.09291054231142291</v>
+      </c>
+      <c r="J62">
+        <v>0.1411485692151528</v>
+      </c>
+      <c r="K62">
+        <v>-0.04847152473098956</v>
+      </c>
+      <c r="L62">
+        <v>0.06301652534715524</v>
+      </c>
+      <c r="M62">
+        <v>-0.05417636499149325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03859652553068044</v>
+        <v>-0.0459199579408987</v>
       </c>
       <c r="C63">
-        <v>0.03072382457803465</v>
+        <v>0.02916004052396189</v>
       </c>
       <c r="D63">
-        <v>0.003547443490271242</v>
+        <v>-0.003992417274003769</v>
       </c>
       <c r="E63">
-        <v>-0.000640279469390943</v>
+        <v>0.01437888287126601</v>
       </c>
       <c r="F63">
-        <v>-0.01289148635025749</v>
+        <v>-0.07279763398630278</v>
       </c>
       <c r="G63">
-        <v>0.004220100522987211</v>
+        <v>-0.002048997428111161</v>
       </c>
       <c r="H63">
-        <v>0.06674274994665783</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.01111316633514833</v>
+      </c>
+      <c r="I63">
+        <v>0.00353702481072205</v>
+      </c>
+      <c r="J63">
+        <v>-0.003439655323578256</v>
+      </c>
+      <c r="K63">
+        <v>-0.02873463024890527</v>
+      </c>
+      <c r="L63">
+        <v>-0.04629739388854284</v>
+      </c>
+      <c r="M63">
+        <v>-0.0387982236307327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.110517208808772</v>
+        <v>-0.09899514669679281</v>
       </c>
       <c r="C64">
-        <v>0.03260497439703831</v>
+        <v>0.04389615776727424</v>
       </c>
       <c r="D64">
-        <v>-0.04472009057430452</v>
+        <v>0.003441114298618045</v>
       </c>
       <c r="E64">
-        <v>0.04051166350658267</v>
+        <v>-0.03911385466345064</v>
       </c>
       <c r="F64">
-        <v>0.01332815462631112</v>
+        <v>-0.08017414659393542</v>
       </c>
       <c r="G64">
-        <v>-0.06591119724819039</v>
+        <v>0.02776178098519848</v>
       </c>
       <c r="H64">
-        <v>-0.01382189695127372</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.08692824497807781</v>
+      </c>
+      <c r="I64">
+        <v>-0.02454860569015621</v>
+      </c>
+      <c r="J64">
+        <v>-0.01962264883907826</v>
+      </c>
+      <c r="K64">
+        <v>0.005143478144034826</v>
+      </c>
+      <c r="L64">
+        <v>0.001738954127333672</v>
+      </c>
+      <c r="M64">
+        <v>0.03143477783635942</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.121876590674536</v>
+        <v>-0.1247233383743187</v>
       </c>
       <c r="C65">
-        <v>0.03784884483680547</v>
+        <v>0.0506413955171293</v>
       </c>
       <c r="D65">
-        <v>-0.03202867269990773</v>
+        <v>-0.01531766794464728</v>
       </c>
       <c r="E65">
-        <v>0.06870018720928452</v>
+        <v>0.03063262725953987</v>
       </c>
       <c r="F65">
-        <v>0.256035547591496</v>
+        <v>0.03296310609722907</v>
       </c>
       <c r="G65">
-        <v>0.2817542213258171</v>
+        <v>-0.1210901071898569</v>
       </c>
       <c r="H65">
-        <v>0.6094994286914723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.0573017107619171</v>
+      </c>
+      <c r="I65">
+        <v>-0.4771641082626495</v>
+      </c>
+      <c r="J65">
+        <v>0.4786215040813895</v>
+      </c>
+      <c r="K65">
+        <v>-0.04669550150180708</v>
+      </c>
+      <c r="L65">
+        <v>-0.2425149405953318</v>
+      </c>
+      <c r="M65">
+        <v>0.01613423942268101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.1606759228998962</v>
+        <v>-0.1345067079589287</v>
       </c>
       <c r="C66">
-        <v>0.1018049463674294</v>
+        <v>0.1276150797320428</v>
       </c>
       <c r="D66">
-        <v>0.003749346236642824</v>
+        <v>-0.1019384329801371</v>
       </c>
       <c r="E66">
-        <v>-0.009243649515041448</v>
+        <v>0.03661688811895694</v>
       </c>
       <c r="F66">
-        <v>-0.04084643604247431</v>
+        <v>-0.1674513900927359</v>
       </c>
       <c r="G66">
-        <v>-0.2321765053503205</v>
+        <v>0.1176026969439661</v>
       </c>
       <c r="H66">
-        <v>-0.1450360937163747</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1110654003481259</v>
+      </c>
+      <c r="I66">
+        <v>0.1033657934088227</v>
+      </c>
+      <c r="J66">
+        <v>-0.1156608585898497</v>
+      </c>
+      <c r="K66">
+        <v>0.1726979688103818</v>
+      </c>
+      <c r="L66">
+        <v>-0.02870388260134459</v>
+      </c>
+      <c r="M66">
+        <v>0.1080584469136001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.09046695915791866</v>
+        <v>-0.07475376804596871</v>
       </c>
       <c r="C67">
-        <v>0.05373446102297</v>
+        <v>0.05562606441914594</v>
       </c>
       <c r="D67">
-        <v>-0.02748252253016155</v>
+        <v>0.01698266734969384</v>
       </c>
       <c r="E67">
-        <v>-0.0001860716094813672</v>
+        <v>-0.02780040030327213</v>
       </c>
       <c r="F67">
-        <v>-0.03286306847000552</v>
+        <v>0.04639046789673994</v>
       </c>
       <c r="G67">
-        <v>-0.02986963269712338</v>
+        <v>0.06431056176069992</v>
       </c>
       <c r="H67">
-        <v>-0.03265649780833839</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.02111940088861107</v>
+      </c>
+      <c r="I67">
+        <v>0.01002795003768911</v>
+      </c>
+      <c r="J67">
+        <v>-0.02753994336430865</v>
+      </c>
+      <c r="K67">
+        <v>-0.01058873955047382</v>
+      </c>
+      <c r="L67">
+        <v>0.1638194323540025</v>
+      </c>
+      <c r="M67">
+        <v>0.04931065505565445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.07906093556774944</v>
+        <v>-0.1228451854972271</v>
       </c>
       <c r="C68">
-        <v>-0.288927107889839</v>
+        <v>-0.2724637416857359</v>
       </c>
       <c r="D68">
-        <v>-0.02557247492229956</v>
+        <v>-0.007499967755232146</v>
       </c>
       <c r="E68">
-        <v>0.02981877541112775</v>
+        <v>0.006413462375360319</v>
       </c>
       <c r="F68">
-        <v>-0.0271543905462879</v>
+        <v>-0.03966463141390234</v>
       </c>
       <c r="G68">
-        <v>0.04129548711407104</v>
+        <v>0.02431221849246201</v>
       </c>
       <c r="H68">
-        <v>0.02668272060113661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.006039866829400183</v>
+      </c>
+      <c r="I68">
+        <v>-0.02643940844050771</v>
+      </c>
+      <c r="J68">
+        <v>0.03605980457773434</v>
+      </c>
+      <c r="K68">
+        <v>-0.01666625535820119</v>
+      </c>
+      <c r="L68">
+        <v>-0.04943852060599557</v>
+      </c>
+      <c r="M68">
+        <v>-0.01279781932830632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.0331605703392558</v>
+        <v>-0.04534984497761881</v>
       </c>
       <c r="C69">
-        <v>0.01942788053252538</v>
+        <v>0.02088131340151365</v>
       </c>
       <c r="D69">
-        <v>-0.005032939855631411</v>
+        <v>0.005368107528891686</v>
       </c>
       <c r="E69">
-        <v>0.007306655376027448</v>
+        <v>0.001844885631256804</v>
       </c>
       <c r="F69">
-        <v>-0.03270138690496163</v>
+        <v>-0.02389730092366179</v>
       </c>
       <c r="G69">
-        <v>-0.03459519427785147</v>
+        <v>0.03504187126805957</v>
       </c>
       <c r="H69">
-        <v>0.04939016026956033</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.0004514820591630741</v>
+      </c>
+      <c r="I69">
+        <v>-0.005576216062986574</v>
+      </c>
+      <c r="J69">
+        <v>-0.002405702026099141</v>
+      </c>
+      <c r="K69">
+        <v>-0.01662786267092832</v>
+      </c>
+      <c r="L69">
+        <v>0.01304528435529166</v>
+      </c>
+      <c r="M69">
+        <v>-0.05486842824950519</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.0596450228335114</v>
+        <v>-0.05355760843486009</v>
       </c>
       <c r="C70">
-        <v>0.01171934367452086</v>
+        <v>0.02732096343636866</v>
       </c>
       <c r="D70">
-        <v>-0.0359409357469718</v>
+        <v>-0.02795850483360575</v>
       </c>
       <c r="E70">
-        <v>-0.003848323396027759</v>
+        <v>-0.02017106506907477</v>
       </c>
       <c r="F70">
-        <v>0.0910479993106522</v>
+        <v>-0.03822737309337213</v>
       </c>
       <c r="G70">
-        <v>0.02907480260214518</v>
+        <v>-0.02484137069214772</v>
       </c>
       <c r="H70">
-        <v>-0.08785749732399747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02681522538708594</v>
+      </c>
+      <c r="I70">
+        <v>-0.09366013341771011</v>
+      </c>
+      <c r="J70">
+        <v>-0.07627197004942346</v>
+      </c>
+      <c r="K70">
+        <v>-0.3354349420041564</v>
+      </c>
+      <c r="L70">
+        <v>0.1788310152096549</v>
+      </c>
+      <c r="M70">
+        <v>0.0826334912299907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08562887012073851</v>
+        <v>-0.1385059867131663</v>
       </c>
       <c r="C71">
-        <v>-0.2846092612086207</v>
+        <v>-0.2800229682932179</v>
       </c>
       <c r="D71">
-        <v>-0.05545169250592138</v>
+        <v>-0.0118594953944361</v>
       </c>
       <c r="E71">
-        <v>0.01585144560705933</v>
+        <v>-0.01594194392646837</v>
       </c>
       <c r="F71">
-        <v>0.005123363399051988</v>
+        <v>-0.03242585885153642</v>
       </c>
       <c r="G71">
-        <v>0.01755379378133938</v>
+        <v>0.03482644825891269</v>
       </c>
       <c r="H71">
-        <v>-0.002894159458188212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.01900159228925791</v>
+      </c>
+      <c r="I71">
+        <v>-0.01267440663068382</v>
+      </c>
+      <c r="J71">
+        <v>0.01089776070886569</v>
+      </c>
+      <c r="K71">
+        <v>0.005202494432175618</v>
+      </c>
+      <c r="L71">
+        <v>-0.02871157727471556</v>
+      </c>
+      <c r="M71">
+        <v>-0.01099995721750844</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1772648421464535</v>
+        <v>-0.1478027977939813</v>
       </c>
       <c r="C72">
-        <v>0.0004246519358505635</v>
+        <v>0.02720563668752508</v>
       </c>
       <c r="D72">
-        <v>0.2321625289207437</v>
+        <v>0.00256169656414355</v>
       </c>
       <c r="E72">
-        <v>-0.04202928475974383</v>
+        <v>0.1634728383377633</v>
       </c>
       <c r="F72">
-        <v>-0.0252003770454475</v>
+        <v>-0.01467385630951849</v>
       </c>
       <c r="G72">
-        <v>-0.03662548993467264</v>
+        <v>0.03754741147415999</v>
       </c>
       <c r="H72">
-        <v>0.1646794721523892</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02325659824332005</v>
+      </c>
+      <c r="I72">
+        <v>-0.02606693571094958</v>
+      </c>
+      <c r="J72">
+        <v>0.1502938090788377</v>
+      </c>
+      <c r="K72">
+        <v>0.07384351079225648</v>
+      </c>
+      <c r="L72">
+        <v>0.01833438618653909</v>
+      </c>
+      <c r="M72">
+        <v>0.02780586279350875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.2940206764600318</v>
+        <v>-0.244014916782219</v>
       </c>
       <c r="C73">
-        <v>0.1703774776481193</v>
+        <v>0.1511561004410903</v>
       </c>
       <c r="D73">
-        <v>-0.105213196655097</v>
+        <v>-0.1396932110277264</v>
       </c>
       <c r="E73">
-        <v>-0.04936377747515331</v>
+        <v>-0.1172013886349526</v>
       </c>
       <c r="F73">
-        <v>0.2458984318670428</v>
+        <v>0.4679300505594811</v>
       </c>
       <c r="G73">
-        <v>0.1086696468684967</v>
+        <v>-0.01334388337603945</v>
       </c>
       <c r="H73">
-        <v>-0.02024357534537399</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.3124373200234688</v>
+      </c>
+      <c r="I73">
+        <v>0.01409288076077542</v>
+      </c>
+      <c r="J73">
+        <v>-0.1503950099603785</v>
+      </c>
+      <c r="K73">
+        <v>0.2525300130788203</v>
+      </c>
+      <c r="L73">
+        <v>-0.09615830197295906</v>
+      </c>
+      <c r="M73">
+        <v>0.1163912014824534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09302910584399658</v>
+        <v>-0.1002228800202206</v>
       </c>
       <c r="C74">
-        <v>0.03296888244758765</v>
+        <v>0.07196609505995313</v>
       </c>
       <c r="D74">
-        <v>-0.008778007467370268</v>
+        <v>-0.01269259577678922</v>
       </c>
       <c r="E74">
-        <v>-0.03981676764816739</v>
+        <v>0.006815413179669672</v>
       </c>
       <c r="F74">
-        <v>-0.09496598766066733</v>
+        <v>0.0400757893158854</v>
       </c>
       <c r="G74">
-        <v>0.0645013681645487</v>
+        <v>0.1383479282289223</v>
       </c>
       <c r="H74">
-        <v>0.04309242528508005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05773573088600528</v>
+      </c>
+      <c r="I74">
+        <v>0.03784037889135076</v>
+      </c>
+      <c r="J74">
+        <v>0.04714600847970445</v>
+      </c>
+      <c r="K74">
+        <v>-0.003648577086097037</v>
+      </c>
+      <c r="L74">
+        <v>-0.009645979770427511</v>
+      </c>
+      <c r="M74">
+        <v>-0.005300253324755644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09188683993105308</v>
+        <v>-0.0969536689711355</v>
       </c>
       <c r="C75">
-        <v>0.01444982339201343</v>
+        <v>0.05211851173847505</v>
       </c>
       <c r="D75">
-        <v>-0.0009588301952195354</v>
+        <v>-0.009024005843562678</v>
       </c>
       <c r="E75">
-        <v>-0.05587530669359701</v>
+        <v>0.0004127310336984969</v>
       </c>
       <c r="F75">
-        <v>-0.1109098328775346</v>
+        <v>0.03383436149161751</v>
       </c>
       <c r="G75">
-        <v>0.04892005427934674</v>
+        <v>0.06594954641252915</v>
       </c>
       <c r="H75">
-        <v>0.01317410753839394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1160947215662432</v>
+      </c>
+      <c r="I75">
+        <v>0.02385647199679809</v>
+      </c>
+      <c r="J75">
+        <v>0.04957336643939578</v>
+      </c>
+      <c r="K75">
+        <v>0.009314338678439721</v>
+      </c>
+      <c r="L75">
+        <v>0.01646213680808152</v>
+      </c>
+      <c r="M75">
+        <v>-0.05164769320682504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.1327559203568405</v>
+        <v>-0.07797147028966961</v>
       </c>
       <c r="C76">
-        <v>0.02708304734433099</v>
+        <v>0.05676007133457521</v>
       </c>
       <c r="D76">
-        <v>-0.01915376376849955</v>
+        <v>-0.00404459085432753</v>
       </c>
       <c r="E76">
-        <v>-0.05099134758033403</v>
+        <v>-0.01224545756550788</v>
       </c>
       <c r="F76">
-        <v>-0.2108924610777867</v>
+        <v>0.06416859476707973</v>
       </c>
       <c r="G76">
-        <v>0.07943153041542966</v>
+        <v>0.1050815968258597</v>
       </c>
       <c r="H76">
-        <v>0.07260202468524178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1692165629909664</v>
+      </c>
+      <c r="I76">
+        <v>0.05829332797881186</v>
+      </c>
+      <c r="J76">
+        <v>0.02432650233240628</v>
+      </c>
+      <c r="K76">
+        <v>-0.03159579123445077</v>
+      </c>
+      <c r="L76">
+        <v>0.01107700693226517</v>
+      </c>
+      <c r="M76">
+        <v>0.01635091297798301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07764135612599825</v>
+        <v>-0.06964946875964995</v>
       </c>
       <c r="C77">
-        <v>0.03326333634810597</v>
+        <v>0.02502484056241266</v>
       </c>
       <c r="D77">
-        <v>-0.02815198081333565</v>
+        <v>-0.02668808996632139</v>
       </c>
       <c r="E77">
-        <v>0.1080450593732926</v>
+        <v>-0.04802190458068967</v>
       </c>
       <c r="F77">
-        <v>0.1698914837937032</v>
+        <v>-0.2394064166933152</v>
       </c>
       <c r="G77">
-        <v>-0.6734743599061634</v>
+        <v>-0.06687334347981301</v>
       </c>
       <c r="H77">
-        <v>0.1230616606329952</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1742346336259377</v>
+      </c>
+      <c r="I77">
+        <v>-0.2458790998584727</v>
+      </c>
+      <c r="J77">
+        <v>0.02988307342333999</v>
+      </c>
+      <c r="K77">
+        <v>0.3370254356019046</v>
+      </c>
+      <c r="L77">
+        <v>0.6271131414131034</v>
+      </c>
+      <c r="M77">
+        <v>0.07959921266858475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1672774119110917</v>
+        <v>-0.1524289127346718</v>
       </c>
       <c r="C78">
-        <v>0.09341512973075264</v>
+        <v>0.114259132134681</v>
       </c>
       <c r="D78">
-        <v>-0.03707719854769684</v>
+        <v>0.1901051934052962</v>
       </c>
       <c r="E78">
-        <v>0.2008184461443516</v>
+        <v>-0.1070959606389209</v>
       </c>
       <c r="F78">
-        <v>-0.02026343842789675</v>
+        <v>-0.1278537909237873</v>
       </c>
       <c r="G78">
-        <v>-0.08087284857420178</v>
+        <v>-0.5637580327743487</v>
       </c>
       <c r="H78">
-        <v>0.001825252335053402</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5527175729135898</v>
+      </c>
+      <c r="I78">
+        <v>-0.05630853198135214</v>
+      </c>
+      <c r="J78">
+        <v>-0.1967356478237129</v>
+      </c>
+      <c r="K78">
+        <v>0.2883297352291289</v>
+      </c>
+      <c r="L78">
+        <v>-0.08542713655755949</v>
+      </c>
+      <c r="M78">
+        <v>0.1931607159129685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1377101749747174</v>
+        <v>-0.1349235670487248</v>
       </c>
       <c r="C79">
-        <v>0.03533190540948726</v>
+        <v>0.07551407398846394</v>
       </c>
       <c r="D79">
-        <v>-0.004581512152881067</v>
+        <v>-0.004229988466460404</v>
       </c>
       <c r="E79">
-        <v>-0.07182211890452568</v>
+        <v>-0.008637785278496561</v>
       </c>
       <c r="F79">
-        <v>-0.1615233301043982</v>
+        <v>0.004842859101789352</v>
       </c>
       <c r="G79">
-        <v>0.02961808495040587</v>
+        <v>0.1222791835053247</v>
       </c>
       <c r="H79">
-        <v>0.04031990703411818</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.1173877748081443</v>
+      </c>
+      <c r="I79">
+        <v>0.06841888512533123</v>
+      </c>
+      <c r="J79">
+        <v>0.09980465955588776</v>
+      </c>
+      <c r="K79">
+        <v>-0.005008270492761483</v>
+      </c>
+      <c r="L79">
+        <v>0.030603060539953</v>
+      </c>
+      <c r="M79">
+        <v>-0.05105044011394012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03255385844787907</v>
+        <v>-0.05926445558898657</v>
       </c>
       <c r="C80">
-        <v>0.006579998164524437</v>
+        <v>0.0318641707169389</v>
       </c>
       <c r="D80">
-        <v>-0.01329757118617866</v>
+        <v>-0.07159157112986747</v>
       </c>
       <c r="E80">
-        <v>-0.04070717309144678</v>
+        <v>0.003561931747983067</v>
       </c>
       <c r="F80">
-        <v>0.02643930774291468</v>
+        <v>-0.04021410492741416</v>
       </c>
       <c r="G80">
-        <v>0.01552320160962496</v>
+        <v>-0.004055496406820609</v>
       </c>
       <c r="H80">
-        <v>0.09044551888427216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.009040022627000478</v>
+      </c>
+      <c r="I80">
+        <v>-0.08041745233668317</v>
+      </c>
+      <c r="J80">
+        <v>-0.05413075175096131</v>
+      </c>
+      <c r="K80">
+        <v>-0.1542504957959837</v>
+      </c>
+      <c r="L80">
+        <v>-0.1380040919502054</v>
+      </c>
+      <c r="M80">
+        <v>0.010521444255454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.106196280930243</v>
+        <v>-0.1212186109255738</v>
       </c>
       <c r="C81">
-        <v>0.03579986099790999</v>
+        <v>0.06687004508703824</v>
       </c>
       <c r="D81">
-        <v>-0.01523887851129559</v>
+        <v>-0.001875001830006216</v>
       </c>
       <c r="E81">
-        <v>-0.07744884273463751</v>
+        <v>0.001662412033221718</v>
       </c>
       <c r="F81">
-        <v>-0.1269350046737415</v>
+        <v>-0.01129053997423657</v>
       </c>
       <c r="G81">
-        <v>0.01956598439952364</v>
+        <v>0.08336054102580666</v>
       </c>
       <c r="H81">
-        <v>0.0003720457414597939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.1006946031076315</v>
+      </c>
+      <c r="I81">
+        <v>0.07033571806465354</v>
+      </c>
+      <c r="J81">
+        <v>0.06546256559446806</v>
+      </c>
+      <c r="K81">
+        <v>-0.0006324471377661911</v>
+      </c>
+      <c r="L81">
+        <v>0.02289341239431264</v>
+      </c>
+      <c r="M81">
+        <v>-0.07920395406651264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.110429344419052</v>
+        <v>-0.1252414437408621</v>
       </c>
       <c r="C82">
-        <v>0.02758559734918553</v>
+        <v>0.05280805195225002</v>
       </c>
       <c r="D82">
-        <v>-0.06632590753304657</v>
+        <v>-0.02701906890763555</v>
       </c>
       <c r="E82">
-        <v>-0.1049772968421604</v>
+        <v>-0.008644074611249048</v>
       </c>
       <c r="F82">
-        <v>-0.2254487835797042</v>
+        <v>0.02348133911707083</v>
       </c>
       <c r="G82">
-        <v>0.0389267094058877</v>
+        <v>0.1886863482149078</v>
       </c>
       <c r="H82">
-        <v>0.02211169098541689</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1483235669899138</v>
+      </c>
+      <c r="I82">
+        <v>0.1239155361497378</v>
+      </c>
+      <c r="J82">
+        <v>0.01890629641482141</v>
+      </c>
+      <c r="K82">
+        <v>-0.06685563920468188</v>
+      </c>
+      <c r="L82">
+        <v>0.0403280660886384</v>
+      </c>
+      <c r="M82">
+        <v>-0.05051348047815898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08168145768380279</v>
+        <v>-0.07553341020690016</v>
       </c>
       <c r="C83">
-        <v>0.06504922571893057</v>
+        <v>0.0802844561936058</v>
       </c>
       <c r="D83">
-        <v>-0.05425845491077944</v>
+        <v>-0.03221846400867814</v>
       </c>
       <c r="E83">
-        <v>0.004898559854188304</v>
+        <v>0.003191765397697752</v>
       </c>
       <c r="F83">
-        <v>0.04695952813453379</v>
+        <v>-0.05379766766826821</v>
       </c>
       <c r="G83">
-        <v>-0.03253370675484588</v>
+        <v>0.09029663448196315</v>
       </c>
       <c r="H83">
-        <v>-0.05700595600462201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02605476256847167</v>
+      </c>
+      <c r="I83">
+        <v>-0.08846598960207179</v>
+      </c>
+      <c r="J83">
+        <v>-0.116925394577722</v>
+      </c>
+      <c r="K83">
+        <v>-0.1211170786768396</v>
+      </c>
+      <c r="L83">
+        <v>0.01878884532413336</v>
+      </c>
+      <c r="M83">
+        <v>0.08752846002155763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05890359330128889</v>
+        <v>-0.05621534558230089</v>
       </c>
       <c r="C84">
-        <v>0.04849311054531697</v>
+        <v>-0.01609165958672486</v>
       </c>
       <c r="D84">
-        <v>0.05286868682378479</v>
+        <v>-0.002353491677167027</v>
       </c>
       <c r="E84">
-        <v>0.01758511453553412</v>
+        <v>0.006618523662529749</v>
       </c>
       <c r="F84">
-        <v>-0.0641099948011586</v>
+        <v>-0.01862045624855655</v>
       </c>
       <c r="G84">
-        <v>0.1478221651784252</v>
+        <v>-0.1804396507272707</v>
       </c>
       <c r="H84">
-        <v>-0.04685241305029245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.08906214452599114</v>
+      </c>
+      <c r="I84">
+        <v>0.2206802781872187</v>
+      </c>
+      <c r="J84">
+        <v>-0.108805780121972</v>
+      </c>
+      <c r="K84">
+        <v>-0.1465794910765195</v>
+      </c>
+      <c r="L84">
+        <v>-0.1486534275874979</v>
+      </c>
+      <c r="M84">
+        <v>0.1693975564059343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.09176734694731627</v>
+        <v>-0.1108127871098947</v>
       </c>
       <c r="C85">
-        <v>0.03331605297987016</v>
+        <v>0.05094028782696612</v>
       </c>
       <c r="D85">
-        <v>-0.03030010512594047</v>
+        <v>-0.0141272298467001</v>
       </c>
       <c r="E85">
-        <v>-0.06506320627339136</v>
+        <v>-0.03610707644899361</v>
       </c>
       <c r="F85">
-        <v>-0.1764323922893945</v>
+        <v>0.006294919029231803</v>
       </c>
       <c r="G85">
-        <v>0.003759752426677766</v>
+        <v>0.1268761080053226</v>
       </c>
       <c r="H85">
-        <v>0.1031830052521415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1185742850150788</v>
+      </c>
+      <c r="I85">
+        <v>0.06879425498454103</v>
+      </c>
+      <c r="J85">
+        <v>0.1145290289740722</v>
+      </c>
+      <c r="K85">
+        <v>0.0115782707338417</v>
+      </c>
+      <c r="L85">
+        <v>0.0333603375729388</v>
+      </c>
+      <c r="M85">
+        <v>-0.04930569242319558</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04505244528724076</v>
+        <v>-0.07424848672076172</v>
       </c>
       <c r="C86">
-        <v>0.03561560150634818</v>
+        <v>0.02390342230267093</v>
       </c>
       <c r="D86">
-        <v>-0.03122938624888243</v>
+        <v>0.0125944937499105</v>
       </c>
       <c r="E86">
-        <v>0.02589538998166167</v>
+        <v>-0.1410100400579458</v>
       </c>
       <c r="F86">
-        <v>0.02735894479715855</v>
+        <v>-0.04015376452249202</v>
       </c>
       <c r="G86">
-        <v>-0.01894676562481342</v>
+        <v>-0.4051215909812618</v>
       </c>
       <c r="H86">
-        <v>0.2199508964020723</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.2154166121939292</v>
+      </c>
+      <c r="I86">
+        <v>0.5537152065844066</v>
+      </c>
+      <c r="J86">
+        <v>0.4438653817294549</v>
+      </c>
+      <c r="K86">
+        <v>-0.1848934070268293</v>
+      </c>
+      <c r="L86">
+        <v>0.065212383001191</v>
+      </c>
+      <c r="M86">
+        <v>0.1772915304548836</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09252208254063898</v>
+        <v>-0.1095741373874069</v>
       </c>
       <c r="C87">
-        <v>0.05684242485763379</v>
+        <v>0.07505508008115791</v>
       </c>
       <c r="D87">
-        <v>-0.006591154807934114</v>
+        <v>0.02435638825362466</v>
       </c>
       <c r="E87">
-        <v>0.06205795210225135</v>
+        <v>-0.009792498813239703</v>
       </c>
       <c r="F87">
-        <v>0.006554449727318671</v>
+        <v>-0.1275051873616306</v>
       </c>
       <c r="G87">
-        <v>-0.1344837875816532</v>
+        <v>-0.04047378626988209</v>
       </c>
       <c r="H87">
-        <v>0.006113509610001398</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.09179092734581265</v>
+      </c>
+      <c r="I87">
+        <v>-0.07623337200822407</v>
+      </c>
+      <c r="J87">
+        <v>-0.01649486247684298</v>
+      </c>
+      <c r="K87">
+        <v>-0.03883068432591324</v>
+      </c>
+      <c r="L87">
+        <v>0.2120606667280083</v>
+      </c>
+      <c r="M87">
+        <v>-0.1489434635016187</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.0570026877685369</v>
+        <v>-0.05885775772819053</v>
       </c>
       <c r="C88">
-        <v>0.03968465943016986</v>
+        <v>0.05580955134789958</v>
       </c>
       <c r="D88">
-        <v>-0.02233850275316054</v>
+        <v>-0.03166804872921258</v>
       </c>
       <c r="E88">
-        <v>0.005378223039270506</v>
+        <v>-0.001620685551818314</v>
       </c>
       <c r="F88">
-        <v>0.007703560540554818</v>
+        <v>-0.04122805081303223</v>
       </c>
       <c r="G88">
-        <v>-0.03306484898573037</v>
+        <v>0.04139391116122195</v>
       </c>
       <c r="H88">
-        <v>-0.01347362866421776</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.02309483123255059</v>
+      </c>
+      <c r="I88">
+        <v>0.003897582094542132</v>
+      </c>
+      <c r="J88">
+        <v>-0.03246637862472383</v>
+      </c>
+      <c r="K88">
+        <v>-0.01680098992602778</v>
+      </c>
+      <c r="L88">
+        <v>-0.05552406105078309</v>
+      </c>
+      <c r="M88">
+        <v>-0.05486984375810309</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1394630126804593</v>
+        <v>-0.2073350643186476</v>
       </c>
       <c r="C89">
-        <v>-0.3447983775341942</v>
+        <v>-0.3624233772336453</v>
       </c>
       <c r="D89">
-        <v>-0.0918241278912804</v>
+        <v>0.04934001385359126</v>
       </c>
       <c r="E89">
-        <v>0.09612730607875859</v>
+        <v>-0.06283983373594833</v>
       </c>
       <c r="F89">
-        <v>0.04905655447505385</v>
+        <v>-0.02413275220740117</v>
       </c>
       <c r="G89">
-        <v>-0.02839033862423881</v>
+        <v>-0.01965407416418198</v>
       </c>
       <c r="H89">
-        <v>-0.001616645572657393</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.0197919338825847</v>
+      </c>
+      <c r="I89">
+        <v>-0.002018491671808137</v>
+      </c>
+      <c r="J89">
+        <v>-0.08254294469924976</v>
+      </c>
+      <c r="K89">
+        <v>-0.01620131097021962</v>
+      </c>
+      <c r="L89">
+        <v>-0.02327870513502876</v>
+      </c>
+      <c r="M89">
+        <v>-0.02925005881081666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1075731132608444</v>
+        <v>-0.1516963105109159</v>
       </c>
       <c r="C90">
-        <v>-0.2772063238814042</v>
+        <v>-0.2685772351026802</v>
       </c>
       <c r="D90">
-        <v>-0.04030814863281994</v>
+        <v>-0.007503284808018971</v>
       </c>
       <c r="E90">
-        <v>0.06056716937208277</v>
+        <v>-0.01232133701178686</v>
       </c>
       <c r="F90">
-        <v>0.03606577262686931</v>
+        <v>-0.03154504475175363</v>
       </c>
       <c r="G90">
-        <v>-0.1033846311422686</v>
+        <v>0.01452512699873832</v>
       </c>
       <c r="H90">
-        <v>-0.002891242382717188</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.07188729298533443</v>
+      </c>
+      <c r="I90">
+        <v>0.002638583922847138</v>
+      </c>
+      <c r="J90">
+        <v>-0.01688513875292878</v>
+      </c>
+      <c r="K90">
+        <v>0.04163000141984432</v>
+      </c>
+      <c r="L90">
+        <v>-0.02144073543396607</v>
+      </c>
+      <c r="M90">
+        <v>0.04993845077689964</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08020099150921844</v>
+        <v>-0.08082279467846157</v>
       </c>
       <c r="C91">
-        <v>0.0183502123335445</v>
+        <v>0.05373149584531043</v>
       </c>
       <c r="D91">
-        <v>-0.01309450803070301</v>
+        <v>0.001067925286880531</v>
       </c>
       <c r="E91">
-        <v>-0.009115074256923783</v>
+        <v>-0.01114906298766643</v>
       </c>
       <c r="F91">
-        <v>-0.09677747467592031</v>
+        <v>0.01724418922401679</v>
       </c>
       <c r="G91">
-        <v>0.06541969174876433</v>
+        <v>0.07071673517268381</v>
       </c>
       <c r="H91">
-        <v>-0.006210260877036626</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.07271830909846932</v>
+      </c>
+      <c r="I91">
+        <v>0.0427045504698272</v>
+      </c>
+      <c r="J91">
+        <v>0.02441978334027253</v>
+      </c>
+      <c r="K91">
+        <v>0.000352942743462323</v>
+      </c>
+      <c r="L91">
+        <v>-0.01305877089313016</v>
+      </c>
+      <c r="M91">
+        <v>0.01167483070066649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.114828988963371</v>
+        <v>-0.1712873754033663</v>
       </c>
       <c r="C92">
-        <v>-0.3188103703665649</v>
+        <v>-0.3131582706763851</v>
       </c>
       <c r="D92">
-        <v>-0.07206112282873237</v>
+        <v>0.03638331046521989</v>
       </c>
       <c r="E92">
-        <v>0.05640370605158006</v>
+        <v>-0.03989029864570558</v>
       </c>
       <c r="F92">
-        <v>0.01011174166457728</v>
+        <v>-0.04480233657614419</v>
       </c>
       <c r="G92">
-        <v>0.09543925803584749</v>
+        <v>0.02341091207391203</v>
       </c>
       <c r="H92">
-        <v>-0.03725603430870185</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.03307042711062271</v>
+      </c>
+      <c r="I92">
+        <v>0.007260577045764154</v>
+      </c>
+      <c r="J92">
+        <v>-0.04616600775479238</v>
+      </c>
+      <c r="K92">
+        <v>-0.01387652975931027</v>
+      </c>
+      <c r="L92">
+        <v>-0.048528948212481</v>
+      </c>
+      <c r="M92">
+        <v>-0.06194741976923366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1177260252206082</v>
+        <v>-0.1613374953628543</v>
       </c>
       <c r="C93">
-        <v>-0.2668542435591125</v>
+        <v>-0.2903244744431969</v>
       </c>
       <c r="D93">
-        <v>-0.04540863892138296</v>
+        <v>-0.03146970353111527</v>
       </c>
       <c r="E93">
-        <v>0.02638150939843102</v>
+        <v>-0.00378512047435466</v>
       </c>
       <c r="F93">
-        <v>0.03391206615750243</v>
+        <v>-0.01811027821758533</v>
       </c>
       <c r="G93">
-        <v>-0.01843689397032446</v>
+        <v>-0.005355823117708534</v>
       </c>
       <c r="H93">
-        <v>-0.009588453205895945</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04132002643348856</v>
+      </c>
+      <c r="I93">
+        <v>0.006776992994912402</v>
+      </c>
+      <c r="J93">
+        <v>0.01580565117258961</v>
+      </c>
+      <c r="K93">
+        <v>-0.03323904814982113</v>
+      </c>
+      <c r="L93">
+        <v>-0.001690699024642213</v>
+      </c>
+      <c r="M93">
+        <v>0.006437594400018682</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09706059632970934</v>
+        <v>-0.1140545547817951</v>
       </c>
       <c r="C94">
-        <v>0.05402887517181964</v>
+        <v>0.07136193894495622</v>
       </c>
       <c r="D94">
-        <v>-0.007404447514542392</v>
+        <v>0.01440101229273292</v>
       </c>
       <c r="E94">
-        <v>-0.01967971328767378</v>
+        <v>-0.02720636697568743</v>
       </c>
       <c r="F94">
-        <v>-0.1572245573861831</v>
+        <v>0.03674399871570707</v>
       </c>
       <c r="G94">
-        <v>0.08764303351534719</v>
+        <v>0.1059262618463807</v>
       </c>
       <c r="H94">
-        <v>0.05746599324964866</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.104665132026657</v>
+      </c>
+      <c r="I94">
+        <v>0.03554665113021928</v>
+      </c>
+      <c r="J94">
+        <v>0.03721135822672477</v>
+      </c>
+      <c r="K94">
+        <v>0.01669212240412206</v>
+      </c>
+      <c r="L94">
+        <v>-0.04943885686173115</v>
+      </c>
+      <c r="M94">
+        <v>-0.003933343435622906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1148425491752114</v>
+        <v>-0.1146902671009294</v>
       </c>
       <c r="C95">
-        <v>0.08030799031174292</v>
+        <v>0.07433231733100465</v>
       </c>
       <c r="D95">
-        <v>-0.0607550064434763</v>
+        <v>0.0218824360221012</v>
       </c>
       <c r="E95">
-        <v>0.04631048617378514</v>
+        <v>-0.06171182924991675</v>
       </c>
       <c r="F95">
-        <v>0.04681111201083459</v>
+        <v>-0.07624228147644747</v>
       </c>
       <c r="G95">
-        <v>-0.04280285547134924</v>
+        <v>-0.210715135002278</v>
       </c>
       <c r="H95">
-        <v>-0.01323304115498051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.154042590681838</v>
+      </c>
+      <c r="I95">
+        <v>-0.006523674490870889</v>
+      </c>
+      <c r="J95">
+        <v>-0.007500500985107395</v>
+      </c>
+      <c r="K95">
+        <v>-0.04754691549917872</v>
+      </c>
+      <c r="L95">
+        <v>0.0116810369759906</v>
+      </c>
+      <c r="M95">
+        <v>-0.6040713542862811</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.0002154727020466549</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.001042095523469423</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-7.441384264588857e-05</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0003178895789370183</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0009637385606697404</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.004431175896314065</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.005983376331300712</v>
+      </c>
+      <c r="I96">
+        <v>-0.001893727472167357</v>
+      </c>
+      <c r="J96">
+        <v>-0.0004466191028241708</v>
+      </c>
+      <c r="K96">
+        <v>0.004291329262965628</v>
+      </c>
+      <c r="L96">
+        <v>-0.004106508762116347</v>
+      </c>
+      <c r="M96">
+        <v>0.007782688633557982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2378326721630506</v>
+        <v>-0.1550860222834873</v>
       </c>
       <c r="C97">
-        <v>-0.09333671767270925</v>
+        <v>0.02221279345577866</v>
       </c>
       <c r="D97">
-        <v>0.9010828668891454</v>
+        <v>0.1126043714654432</v>
       </c>
       <c r="E97">
-        <v>-0.04509945568849651</v>
+        <v>0.9315171707087871</v>
       </c>
       <c r="F97">
-        <v>0.1030966767450419</v>
+        <v>0.01154266919740655</v>
       </c>
       <c r="G97">
-        <v>-0.02017276890643484</v>
+        <v>-0.1265591403904125</v>
       </c>
       <c r="H97">
-        <v>-0.03714608210426443</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.05957443824652692</v>
+      </c>
+      <c r="I97">
+        <v>0.09333494866969533</v>
+      </c>
+      <c r="J97">
+        <v>-0.01730372988931438</v>
+      </c>
+      <c r="K97">
+        <v>0.03415983609001974</v>
+      </c>
+      <c r="L97">
+        <v>0.0270928378232118</v>
+      </c>
+      <c r="M97">
+        <v>0.01318658412010656</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2932909467831916</v>
+        <v>-0.2545940385890262</v>
       </c>
       <c r="C98">
-        <v>0.0977949523638601</v>
+        <v>0.1120308701213881</v>
       </c>
       <c r="D98">
-        <v>-0.1022807084023522</v>
+        <v>0.02662831268084157</v>
       </c>
       <c r="E98">
-        <v>-0.1561231531315879</v>
+        <v>-0.0002000244755970193</v>
       </c>
       <c r="F98">
-        <v>0.28119711400887</v>
+        <v>0.3779812754177078</v>
       </c>
       <c r="G98">
-        <v>0.2595202610536876</v>
+        <v>-0.1748884655411872</v>
       </c>
       <c r="H98">
-        <v>-0.5303732202341602</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.04033229994613727</v>
+      </c>
+      <c r="I98">
+        <v>-0.1851243018238161</v>
+      </c>
+      <c r="J98">
+        <v>-0.3650376797446621</v>
+      </c>
+      <c r="K98">
+        <v>-0.4403618398381151</v>
+      </c>
+      <c r="L98">
+        <v>0.2109559156270198</v>
+      </c>
+      <c r="M98">
+        <v>0.01107154827829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06648649493342684</v>
+        <v>-0.06729368233650955</v>
       </c>
       <c r="C99">
-        <v>0.05042530513075182</v>
+        <v>0.05477084786813496</v>
       </c>
       <c r="D99">
-        <v>-0.02925124313451325</v>
+        <v>0.005219588938583378</v>
       </c>
       <c r="E99">
-        <v>-0.0001533960030257152</v>
+        <v>-0.04242278359082624</v>
       </c>
       <c r="F99">
-        <v>-0.02116333156732914</v>
+        <v>0.01024751164039034</v>
       </c>
       <c r="G99">
-        <v>-0.03337336274926975</v>
+        <v>0.0196747279636411</v>
       </c>
       <c r="H99">
-        <v>-0.04891330710206884</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.0231901371052698</v>
+      </c>
+      <c r="I99">
+        <v>0.0120141287664507</v>
+      </c>
+      <c r="J99">
+        <v>-0.02279323118091671</v>
+      </c>
+      <c r="K99">
+        <v>0.04582813585927078</v>
+      </c>
+      <c r="L99">
+        <v>0.04699409195954822</v>
+      </c>
+      <c r="M99">
+        <v>-0.02020721799824023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.0008957267828935688</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.006657140535767494</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.003363119673442477</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03900491675605513</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.03022942499854111</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.01479271589094906</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.01536491107252402</v>
+      </c>
+      <c r="I100">
+        <v>-0.005352101518756544</v>
+      </c>
+      <c r="J100">
+        <v>-0.02024606879308605</v>
+      </c>
+      <c r="K100">
+        <v>-0.04438141234161085</v>
+      </c>
+      <c r="L100">
+        <v>0.02012581214673853</v>
+      </c>
+      <c r="M100">
+        <v>-0.01119966366019986</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05315328240466388</v>
+        <v>-0.04004784460434014</v>
       </c>
       <c r="C101">
-        <v>0.01548906763181764</v>
+        <v>0.02711892842149455</v>
       </c>
       <c r="D101">
-        <v>-0.008686456884367352</v>
+        <v>-0.006590826880758051</v>
       </c>
       <c r="E101">
-        <v>0.02772669791033364</v>
+        <v>-0.009424221763418058</v>
       </c>
       <c r="F101">
-        <v>-0.01379160318353202</v>
+        <v>-0.07080968647772767</v>
       </c>
       <c r="G101">
-        <v>0.01291140862184735</v>
+        <v>0.02044832709571798</v>
       </c>
       <c r="H101">
-        <v>0.03395600098343485</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01120550224866103</v>
+      </c>
+      <c r="I101">
+        <v>-0.009108336573546044</v>
+      </c>
+      <c r="J101">
+        <v>0.006540301884216128</v>
+      </c>
+      <c r="K101">
+        <v>-0.09049472446468348</v>
+      </c>
+      <c r="L101">
+        <v>-0.01884346261503374</v>
+      </c>
+      <c r="M101">
+        <v>-0.01784889886553174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
